--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4036910.158739859</v>
+        <v>4037142.799813195</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53890.85515285281</v>
+        <v>53890.85515285257</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>57.16776090941369</v>
+        <v>223.4994981799305</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -706,19 +706,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -755,7 +755,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>31.7407704411373</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>80.83011447495538</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -943,16 +943,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -977,16 +977,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>63.4211701055238</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>103.9917919211018</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>37.10634673358876</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>198.7050131246913</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>218.0792724223796</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25.34359263192371</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="10">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>130.4655268502615</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>274.2577136505129</v>
       </c>
       <c r="D11" t="n">
-        <v>263.6678635001883</v>
+        <v>218.5331439416853</v>
       </c>
       <c r="E11" t="n">
         <v>290.9151919517672</v>
@@ -1390,7 +1390,7 @@
         <v>225.8230740502262</v>
       </c>
       <c r="I11" t="n">
-        <v>34.24693463981495</v>
+        <v>34.24693463981494</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22.50225960428294</v>
+        <v>67.63697916278538</v>
       </c>
       <c r="T11" t="n">
         <v>122.4049485207083</v>
       </c>
       <c r="U11" t="n">
-        <v>160.1536483261576</v>
+        <v>160.1536483261575</v>
       </c>
       <c r="V11" t="n">
         <v>236.7370803496403</v>
@@ -1438,7 +1438,7 @@
         <v>278.7159225579744</v>
       </c>
       <c r="Y11" t="n">
-        <v>295.222760535559</v>
+        <v>295.2227605355589</v>
       </c>
     </row>
     <row r="12">
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>26.73095892851813</v>
+        <v>26.73095892851815</v>
       </c>
       <c r="S12" t="n">
         <v>149.7163148892172</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.81680206144269</v>
+        <v>88.81680206144264</v>
       </c>
       <c r="C13" t="n">
-        <v>76.23164297813322</v>
+        <v>76.23164297813318</v>
       </c>
       <c r="D13" t="n">
-        <v>57.60029489771775</v>
+        <v>57.6002948977177</v>
       </c>
       <c r="E13" t="n">
-        <v>55.41878452607456</v>
+        <v>55.41878452607452</v>
       </c>
       <c r="F13" t="n">
-        <v>54.40586990243663</v>
+        <v>54.40586990243659</v>
       </c>
       <c r="G13" t="n">
-        <v>75.98432295022739</v>
+        <v>75.98432295022735</v>
       </c>
       <c r="H13" t="n">
-        <v>62.39685106506695</v>
+        <v>62.39685106506718</v>
       </c>
       <c r="I13" t="n">
-        <v>34.61884066282537</v>
+        <v>34.61884066282539</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.69774406443786</v>
+        <v>41.6977440644383</v>
       </c>
       <c r="S13" t="n">
         <v>115.7226573929197</v>
       </c>
       <c r="T13" t="n">
-        <v>132.6940949874571</v>
+        <v>132.694094987457</v>
       </c>
       <c r="U13" t="n">
-        <v>195.2497706021196</v>
+        <v>195.2497706021198</v>
       </c>
       <c r="V13" t="n">
-        <v>161.1224652033334</v>
+        <v>161.1224652033333</v>
       </c>
       <c r="W13" t="n">
-        <v>195.5078202160964</v>
+        <v>195.5078202160963</v>
       </c>
       <c r="X13" t="n">
         <v>134.6944772685425</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.5694752316002</v>
+        <v>127.5694752316001</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>263.6678635001883</v>
       </c>
       <c r="E14" t="n">
-        <v>245.7804723932636</v>
+        <v>290.9151919517672</v>
       </c>
       <c r="F14" t="n">
         <v>315.8608676212168</v>
@@ -1627,7 +1627,7 @@
         <v>225.8230740502262</v>
       </c>
       <c r="I14" t="n">
-        <v>34.24693463981495</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.63697916278541</v>
+        <v>56.74919424409748</v>
       </c>
       <c r="T14" t="n">
         <v>122.4049485207083</v>
       </c>
       <c r="U14" t="n">
-        <v>160.1536483261576</v>
+        <v>160.1536483261575</v>
       </c>
       <c r="V14" t="n">
         <v>236.7370803496403</v>
@@ -1675,7 +1675,7 @@
         <v>278.7159225579744</v>
       </c>
       <c r="Y14" t="n">
-        <v>295.222760535559</v>
+        <v>295.2227605355589</v>
       </c>
     </row>
     <row r="15">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>26.73095892851813</v>
+        <v>26.73095892851815</v>
       </c>
       <c r="S15" t="n">
         <v>149.7163148892172</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.81680206144269</v>
+        <v>88.81680206144264</v>
       </c>
       <c r="C16" t="n">
-        <v>76.23164297813322</v>
+        <v>76.23164297813318</v>
       </c>
       <c r="D16" t="n">
-        <v>57.60029489771775</v>
+        <v>57.6002948977177</v>
       </c>
       <c r="E16" t="n">
-        <v>55.41878452607456</v>
+        <v>55.41878452607452</v>
       </c>
       <c r="F16" t="n">
-        <v>54.40586990243663</v>
+        <v>54.40586990243659</v>
       </c>
       <c r="G16" t="n">
-        <v>75.98432295022739</v>
+        <v>75.98432295022735</v>
       </c>
       <c r="H16" t="n">
-        <v>62.39685106506721</v>
+        <v>62.39685106506718</v>
       </c>
       <c r="I16" t="n">
-        <v>34.61884066282543</v>
+        <v>34.61884066282539</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.69774406443833</v>
+        <v>41.6977440644383</v>
       </c>
       <c r="S16" t="n">
         <v>115.7226573929197</v>
       </c>
       <c r="T16" t="n">
-        <v>132.6940949874571</v>
+        <v>132.694094987457</v>
       </c>
       <c r="U16" t="n">
-        <v>195.2497706021197</v>
+        <v>195.2497706021196</v>
       </c>
       <c r="V16" t="n">
-        <v>161.1224652033334</v>
+        <v>161.1224652033333</v>
       </c>
       <c r="W16" t="n">
-        <v>195.5078202160964</v>
+        <v>195.5078202160963</v>
       </c>
       <c r="X16" t="n">
         <v>134.6944772685425</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.5694752316002</v>
+        <v>127.5694752316001</v>
       </c>
     </row>
     <row r="17">
@@ -1846,13 +1846,13 @@
         <v>288.7096822390857</v>
       </c>
       <c r="C17" t="n">
-        <v>271.2487323466127</v>
+        <v>271.2487323466128</v>
       </c>
       <c r="D17" t="n">
         <v>260.6588821962881</v>
       </c>
       <c r="E17" t="n">
-        <v>287.9062106478673</v>
+        <v>287.9062106478669</v>
       </c>
       <c r="F17" t="n">
         <v>312.8518863173166</v>
@@ -1864,7 +1864,7 @@
         <v>222.814092746326</v>
       </c>
       <c r="I17" t="n">
-        <v>31.23795333591475</v>
+        <v>31.23795333591478</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>64.62799785888519</v>
+        <v>64.627997858885</v>
       </c>
       <c r="T17" t="n">
-        <v>119.3959672168081</v>
+        <v>119.3959672168082</v>
       </c>
       <c r="U17" t="n">
-        <v>157.1446670222574</v>
+        <v>157.1446670222569</v>
       </c>
       <c r="V17" t="n">
         <v>233.7280990457401</v>
@@ -1912,7 +1912,7 @@
         <v>275.7069412540742</v>
       </c>
       <c r="Y17" t="n">
-        <v>292.2137792316587</v>
+        <v>292.2137792316588</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.80782075754246</v>
+        <v>85.80782075754249</v>
       </c>
       <c r="C19" t="n">
-        <v>73.222661674233</v>
+        <v>73.22266167423302</v>
       </c>
       <c r="D19" t="n">
-        <v>54.59131359381752</v>
+        <v>54.59131359381755</v>
       </c>
       <c r="E19" t="n">
-        <v>52.40980322217433</v>
+        <v>52.40980322217436</v>
       </c>
       <c r="F19" t="n">
-        <v>51.39688859853641</v>
+        <v>51.39688859853644</v>
       </c>
       <c r="G19" t="n">
-        <v>72.97534164632717</v>
+        <v>72.97534164632719</v>
       </c>
       <c r="H19" t="n">
-        <v>59.38786976116698</v>
+        <v>59.38786976116701</v>
       </c>
       <c r="I19" t="n">
-        <v>31.60985935892521</v>
+        <v>31.60985935892524</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>38.68876276053812</v>
+        <v>38.68876276053815</v>
       </c>
       <c r="S19" t="n">
         <v>112.7136760890195</v>
@@ -2092,16 +2092,16 @@
         <v>287.9062106478669</v>
       </c>
       <c r="F20" t="n">
-        <v>312.8518863173166</v>
+        <v>312.8518863173165</v>
       </c>
       <c r="G20" t="n">
-        <v>319.0682473259369</v>
+        <v>319.0682473259364</v>
       </c>
       <c r="H20" t="n">
-        <v>222.814092746326</v>
+        <v>222.8140927463259</v>
       </c>
       <c r="I20" t="n">
-        <v>31.23795333591475</v>
+        <v>31.23795333591462</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>64.62799785888519</v>
+        <v>64.627997858885</v>
       </c>
       <c r="T20" t="n">
         <v>119.3959672168081</v>
       </c>
       <c r="U20" t="n">
-        <v>157.1446670222574</v>
+        <v>157.1446670222578</v>
       </c>
       <c r="V20" t="n">
-        <v>233.7280990457401</v>
+        <v>233.72809904574</v>
       </c>
       <c r="W20" t="n">
-        <v>255.2168092930182</v>
+        <v>255.2168092930181</v>
       </c>
       <c r="X20" t="n">
-        <v>275.7069412540742</v>
+        <v>275.7069412540741</v>
       </c>
       <c r="Y20" t="n">
         <v>292.2137792316587</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.80782075754246</v>
+        <v>85.8078207575424</v>
       </c>
       <c r="C22" t="n">
-        <v>73.222661674233</v>
+        <v>73.22266167423294</v>
       </c>
       <c r="D22" t="n">
-        <v>54.59131359381752</v>
+        <v>54.59131359381746</v>
       </c>
       <c r="E22" t="n">
-        <v>52.40980322217433</v>
+        <v>52.40980322217428</v>
       </c>
       <c r="F22" t="n">
-        <v>51.39688859853641</v>
+        <v>51.39688859853635</v>
       </c>
       <c r="G22" t="n">
-        <v>72.97534164632717</v>
+        <v>72.97534164632711</v>
       </c>
       <c r="H22" t="n">
-        <v>59.38786976116698</v>
+        <v>59.38786976116693</v>
       </c>
       <c r="I22" t="n">
-        <v>31.60985935892521</v>
+        <v>31.60985935892515</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>38.68876276053812</v>
+        <v>38.68876276053806</v>
       </c>
       <c r="S22" t="n">
         <v>112.7136760890195</v>
       </c>
       <c r="T22" t="n">
-        <v>129.6851136835569</v>
+        <v>129.6851136835568</v>
       </c>
       <c r="U22" t="n">
         <v>192.2407892982195</v>
       </c>
       <c r="V22" t="n">
-        <v>158.1134838994332</v>
+        <v>158.1134838994331</v>
       </c>
       <c r="W22" t="n">
-        <v>192.4988389121962</v>
+        <v>192.4988389121961</v>
       </c>
       <c r="X22" t="n">
         <v>131.6854959646423</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.5604939277</v>
+        <v>124.5604939276999</v>
       </c>
     </row>
     <row r="23">
@@ -2335,10 +2335,10 @@
         <v>319.0682473259365</v>
       </c>
       <c r="H23" t="n">
-        <v>222.814092746326</v>
+        <v>222.8140927463259</v>
       </c>
       <c r="I23" t="n">
-        <v>31.23795333591475</v>
+        <v>31.23795333591472</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>119.3959672168081</v>
       </c>
       <c r="U23" t="n">
-        <v>157.1446670222569</v>
+        <v>157.1446670222574</v>
       </c>
       <c r="V23" t="n">
-        <v>233.7280990457401</v>
+        <v>233.72809904574</v>
       </c>
       <c r="W23" t="n">
-        <v>255.2168092930182</v>
+        <v>255.2168092930181</v>
       </c>
       <c r="X23" t="n">
         <v>275.7069412540742</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.80782075754246</v>
+        <v>85.80782075754243</v>
       </c>
       <c r="C25" t="n">
-        <v>73.222661674233</v>
+        <v>73.22266167423297</v>
       </c>
       <c r="D25" t="n">
-        <v>54.59131359381752</v>
+        <v>54.59131359381749</v>
       </c>
       <c r="E25" t="n">
-        <v>52.40980322217433</v>
+        <v>52.4098032221743</v>
       </c>
       <c r="F25" t="n">
-        <v>51.39688859853641</v>
+        <v>51.39688859853638</v>
       </c>
       <c r="G25" t="n">
-        <v>72.97534164632717</v>
+        <v>72.97534164632714</v>
       </c>
       <c r="H25" t="n">
-        <v>59.38786976116698</v>
+        <v>59.38786976116695</v>
       </c>
       <c r="I25" t="n">
-        <v>31.60985935892521</v>
+        <v>31.60985935892518</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>38.68876276053812</v>
+        <v>38.68876276053809</v>
       </c>
       <c r="S25" t="n">
         <v>112.7136760890195</v>
       </c>
       <c r="T25" t="n">
-        <v>129.6851136835569</v>
+        <v>129.6851136835568</v>
       </c>
       <c r="U25" t="n">
         <v>192.2407892982195</v>
       </c>
       <c r="V25" t="n">
-        <v>158.1134838994332</v>
+        <v>158.1134838994331</v>
       </c>
       <c r="W25" t="n">
-        <v>192.4988389121962</v>
+        <v>192.4988389121961</v>
       </c>
       <c r="X25" t="n">
         <v>131.6854959646423</v>
       </c>
       <c r="Y25" t="n">
-        <v>124.5604939277</v>
+        <v>124.5604939276999</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>322.0772286298367</v>
       </c>
       <c r="H26" t="n">
-        <v>225.8230740502262</v>
+        <v>180.6883544917232</v>
       </c>
       <c r="I26" t="n">
         <v>34.24693463981494</v>
@@ -2617,7 +2617,7 @@
         <v>236.7370803496403</v>
       </c>
       <c r="W26" t="n">
-        <v>213.0910710384148</v>
+        <v>258.2257905969184</v>
       </c>
       <c r="X26" t="n">
         <v>278.7159225579744</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.6977440644383</v>
+        <v>41.69774406443831</v>
       </c>
       <c r="S28" t="n">
         <v>115.7226573929197</v>
@@ -2809,7 +2809,7 @@
         <v>322.0772286298367</v>
       </c>
       <c r="H29" t="n">
-        <v>225.8230740502262</v>
+        <v>180.6883544917232</v>
       </c>
       <c r="I29" t="n">
         <v>34.24693463981494</v>
@@ -2851,7 +2851,7 @@
         <v>160.1536483261575</v>
       </c>
       <c r="V29" t="n">
-        <v>191.6023607911367</v>
+        <v>236.7370803496403</v>
       </c>
       <c r="W29" t="n">
         <v>258.2257905969184</v>
@@ -2967,7 +2967,7 @@
         <v>75.98432295022735</v>
       </c>
       <c r="H31" t="n">
-        <v>62.39685106506718</v>
+        <v>62.39685106506717</v>
       </c>
       <c r="I31" t="n">
         <v>34.61884066282539</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.69774406443786</v>
+        <v>41.6977440644383</v>
       </c>
       <c r="S31" t="n">
         <v>115.7226573929197</v>
@@ -3006,7 +3006,7 @@
         <v>132.694094987457</v>
       </c>
       <c r="U31" t="n">
-        <v>195.2497706021198</v>
+        <v>195.2497706021194</v>
       </c>
       <c r="V31" t="n">
         <v>161.1224652033333</v>
@@ -3046,10 +3046,10 @@
         <v>319.0682473259365</v>
       </c>
       <c r="H32" t="n">
-        <v>222.8140927463255</v>
+        <v>222.814092746326</v>
       </c>
       <c r="I32" t="n">
-        <v>31.23795333591475</v>
+        <v>31.23795333591476</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>119.3959672168081</v>
       </c>
       <c r="U32" t="n">
-        <v>157.1446670222578</v>
+        <v>157.1446670222574</v>
       </c>
       <c r="V32" t="n">
         <v>233.7280990457401</v>
@@ -3268,7 +3268,7 @@
         <v>288.7096822390857</v>
       </c>
       <c r="C35" t="n">
-        <v>271.2487323466127</v>
+        <v>271.2487323466128</v>
       </c>
       <c r="D35" t="n">
         <v>260.6588821962881</v>
@@ -3283,10 +3283,10 @@
         <v>319.0682473259365</v>
       </c>
       <c r="H35" t="n">
-        <v>222.814092746326</v>
+        <v>222.8140927463255</v>
       </c>
       <c r="I35" t="n">
-        <v>31.23795333591476</v>
+        <v>31.23795333591478</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.627997858885</v>
+        <v>64.62799785888522</v>
       </c>
       <c r="T35" t="n">
-        <v>119.3959672168081</v>
+        <v>119.3959672168082</v>
       </c>
       <c r="U35" t="n">
-        <v>157.1446670222578</v>
+        <v>157.1446670222574</v>
       </c>
       <c r="V35" t="n">
         <v>233.7280990457401</v>
@@ -3334,7 +3334,7 @@
         <v>275.7069412540742</v>
       </c>
       <c r="Y35" t="n">
-        <v>292.2137792316587</v>
+        <v>292.2137792316588</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>85.80782075754246</v>
+        <v>85.80782075754249</v>
       </c>
       <c r="C37" t="n">
-        <v>73.222661674233</v>
+        <v>73.22266167423302</v>
       </c>
       <c r="D37" t="n">
-        <v>54.59131359381752</v>
+        <v>54.59131359381755</v>
       </c>
       <c r="E37" t="n">
-        <v>52.40980322217433</v>
+        <v>52.40980322217436</v>
       </c>
       <c r="F37" t="n">
-        <v>51.39688859853641</v>
+        <v>51.39688859853644</v>
       </c>
       <c r="G37" t="n">
-        <v>72.97534164632717</v>
+        <v>72.97534164632719</v>
       </c>
       <c r="H37" t="n">
-        <v>59.38786976116698</v>
+        <v>59.38786976116701</v>
       </c>
       <c r="I37" t="n">
-        <v>31.60985935892521</v>
+        <v>31.60985935892524</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>38.68876276053812</v>
+        <v>38.68876276053815</v>
       </c>
       <c r="S37" t="n">
         <v>112.7136760890195</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>288.7096822390856</v>
+        <v>288.7096822390857</v>
       </c>
       <c r="C38" t="n">
-        <v>271.2487323466125</v>
+        <v>271.2487323466128</v>
       </c>
       <c r="D38" t="n">
-        <v>260.6588821962879</v>
+        <v>260.6588821962881</v>
       </c>
       <c r="E38" t="n">
-        <v>287.9062106478668</v>
+        <v>287.9062106478669</v>
       </c>
       <c r="F38" t="n">
-        <v>312.8518863173164</v>
+        <v>312.8518863173166</v>
       </c>
       <c r="G38" t="n">
-        <v>319.0682473259363</v>
+        <v>319.0682473259365</v>
       </c>
       <c r="H38" t="n">
-        <v>222.8140927463258</v>
+        <v>222.814092746326</v>
       </c>
       <c r="I38" t="n">
-        <v>31.2379533359146</v>
+        <v>31.23795333591478</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>64.627997858885</v>
       </c>
       <c r="T38" t="n">
-        <v>119.395967216808</v>
+        <v>119.3959672168082</v>
       </c>
       <c r="U38" t="n">
-        <v>157.1446670222583</v>
+        <v>157.1446670222574</v>
       </c>
       <c r="V38" t="n">
-        <v>233.7280990457399</v>
+        <v>233.7280990457401</v>
       </c>
       <c r="W38" t="n">
-        <v>255.216809293018</v>
+        <v>255.2168092930182</v>
       </c>
       <c r="X38" t="n">
-        <v>275.706941254074</v>
+        <v>275.7069412540742</v>
       </c>
       <c r="Y38" t="n">
-        <v>292.2137792316586</v>
+        <v>292.2137792316588</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85.8078207575423</v>
+        <v>85.80782075754249</v>
       </c>
       <c r="C40" t="n">
-        <v>73.22266167423284</v>
+        <v>73.22266167423302</v>
       </c>
       <c r="D40" t="n">
-        <v>54.59131359381736</v>
+        <v>54.59131359381755</v>
       </c>
       <c r="E40" t="n">
-        <v>52.40980322217418</v>
+        <v>52.40980322217436</v>
       </c>
       <c r="F40" t="n">
-        <v>51.39688859853625</v>
+        <v>51.39688859853644</v>
       </c>
       <c r="G40" t="n">
-        <v>72.97534164632701</v>
+        <v>72.97534164632719</v>
       </c>
       <c r="H40" t="n">
-        <v>59.38786976116683</v>
+        <v>59.38786976116701</v>
       </c>
       <c r="I40" t="n">
-        <v>31.60985935892505</v>
+        <v>31.60985935892524</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>38.68876276053796</v>
+        <v>38.68876276053815</v>
       </c>
       <c r="S40" t="n">
-        <v>112.7136760890193</v>
+        <v>112.7136760890195</v>
       </c>
       <c r="T40" t="n">
-        <v>129.6851136835567</v>
+        <v>129.6851136835569</v>
       </c>
       <c r="U40" t="n">
-        <v>192.2407892982193</v>
+        <v>192.2407892982195</v>
       </c>
       <c r="V40" t="n">
-        <v>158.113483899433</v>
+        <v>158.1134838994332</v>
       </c>
       <c r="W40" t="n">
-        <v>192.498838912196</v>
+        <v>192.4988389121962</v>
       </c>
       <c r="X40" t="n">
-        <v>131.6854959646421</v>
+        <v>131.6854959646423</v>
       </c>
       <c r="Y40" t="n">
-        <v>124.5604939276998</v>
+        <v>124.5604939277</v>
       </c>
     </row>
     <row r="41">
@@ -3915,7 +3915,7 @@
         <v>75.98432295022735</v>
       </c>
       <c r="H43" t="n">
-        <v>62.39685106506717</v>
+        <v>62.39685106506718</v>
       </c>
       <c r="I43" t="n">
         <v>34.61884066282539</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.69774406443854</v>
+        <v>41.6977440644383</v>
       </c>
       <c r="S43" t="n">
         <v>115.7226573929197</v>
@@ -3954,7 +3954,7 @@
         <v>132.694094987457</v>
       </c>
       <c r="U43" t="n">
-        <v>195.2497706021197</v>
+        <v>195.2497706021196</v>
       </c>
       <c r="V43" t="n">
         <v>161.1224652033333</v>
@@ -3991,10 +3991,10 @@
         <v>315.8608676212168</v>
       </c>
       <c r="G44" t="n">
-        <v>311.1894437111486</v>
+        <v>322.0772286298367</v>
       </c>
       <c r="H44" t="n">
-        <v>225.8230740502262</v>
+        <v>214.9352891315381</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>54.40586990243659</v>
       </c>
       <c r="G46" t="n">
-        <v>75.98432295022735</v>
+        <v>75.98432295022766</v>
       </c>
       <c r="H46" t="n">
-        <v>62.39685106506718</v>
+        <v>62.39685106506717</v>
       </c>
       <c r="I46" t="n">
         <v>34.61884066282539</v>
@@ -4191,7 +4191,7 @@
         <v>132.694094987457</v>
       </c>
       <c r="U46" t="n">
-        <v>195.2497706021196</v>
+        <v>195.2497706021197</v>
       </c>
       <c r="V46" t="n">
         <v>161.1224652033333</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>104.5536560184564</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C2" t="n">
-        <v>104.5536560184564</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D2" t="n">
-        <v>104.5536560184564</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E2" t="n">
-        <v>104.5536560184564</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>591.4512093066566</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U2" t="n">
-        <v>348.0024326625565</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V2" t="n">
-        <v>104.5536560184564</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W2" t="n">
-        <v>104.5536560184564</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X2" t="n">
-        <v>104.5536560184564</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y2" t="n">
-        <v>104.5536560184564</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>554.837743301797</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4412,19 +4412,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>931.9957712266591</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>931.9957712266591</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>931.9957712266591</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>703.7721529630483</v>
       </c>
     </row>
     <row r="4">
@@ -4476,7 +4476,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
         <v>19.28114311021272</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>348.0024326625565</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C5" t="n">
-        <v>348.0024326625565</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D5" t="n">
-        <v>348.0024326625565</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E5" t="n">
-        <v>348.0024326625565</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
-        <v>341.056931913353</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>325.5996212920045</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U5" t="n">
-        <v>348.0024326625565</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V5" t="n">
-        <v>348.0024326625565</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W5" t="n">
-        <v>348.0024326625565</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X5" t="n">
-        <v>348.0024326625565</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y5" t="n">
-        <v>348.0024326625565</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>489.9572726784918</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>315.5042433973647</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F6" t="n">
         <v>20.03527576299844</v>
@@ -4652,16 +4652,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>621.8469951458151</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>860.4511411346975</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>360.2295980564601</v>
+        <v>697.8087728840246</v>
       </c>
       <c r="V6" t="n">
-        <v>125.0774898247174</v>
+        <v>697.8087728840246</v>
       </c>
       <c r="W6" t="n">
-        <v>125.0774898247174</v>
+        <v>697.8087728840246</v>
       </c>
       <c r="X6" t="n">
-        <v>20.03527576299844</v>
+        <v>489.9572726784918</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>489.9572726784918</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4764,13 +4764,13 @@
         <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>710.516763498309</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>467.067986854209</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4831,25 +4831,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>461.2466632505798</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>461.2466632505798</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>461.2466632505798</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>253.395163045047</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>45.6348642800931</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4950,19 +4950,19 @@
         <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1814.226443541793</v>
+        <v>1768.635817725123</v>
       </c>
       <c r="C11" t="n">
-        <v>1537.198449955416</v>
+        <v>1491.607824138747</v>
       </c>
       <c r="D11" t="n">
         <v>1270.867274702701</v>
@@ -5032,61 +5032,61 @@
         <v>657.9621640229191</v>
       </c>
       <c r="G11" t="n">
-        <v>332.6316300533871</v>
+        <v>332.631630053387</v>
       </c>
       <c r="H11" t="n">
-        <v>104.5275148511384</v>
+        <v>104.5275148511383</v>
       </c>
       <c r="I11" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859799</v>
       </c>
       <c r="J11" t="n">
-        <v>243.8279252593011</v>
+        <v>243.8279252593006</v>
       </c>
       <c r="K11" t="n">
-        <v>625.1936695733939</v>
+        <v>625.1936695733934</v>
       </c>
       <c r="L11" t="n">
-        <v>1150.588225603152</v>
+        <v>1150.588225603151</v>
       </c>
       <c r="M11" t="n">
-        <v>1751.797447352348</v>
+        <v>1751.797447352347</v>
       </c>
       <c r="N11" t="n">
-        <v>2348.102865308523</v>
+        <v>2348.102865308522</v>
       </c>
       <c r="O11" t="n">
-        <v>2865.989524423014</v>
+        <v>2865.989524423013</v>
       </c>
       <c r="P11" t="n">
-        <v>3270.319423338377</v>
+        <v>3270.319423338376</v>
       </c>
       <c r="Q11" t="n">
-        <v>3496.732578929901</v>
+        <v>3496.7325789299</v>
       </c>
       <c r="R11" t="n">
-        <v>3496.732578929901</v>
+        <v>3496.7325789299</v>
       </c>
       <c r="S11" t="n">
-        <v>3474.00302377406</v>
+        <v>3428.412397957389</v>
       </c>
       <c r="T11" t="n">
-        <v>3350.36166163193</v>
+        <v>3304.771035815259</v>
       </c>
       <c r="U11" t="n">
-        <v>3188.590299686316</v>
+        <v>3142.999673869646</v>
       </c>
       <c r="V11" t="n">
-        <v>2949.461935696781</v>
+        <v>2903.87130988011</v>
       </c>
       <c r="W11" t="n">
-        <v>2688.627803780702</v>
+        <v>2643.037177964031</v>
       </c>
       <c r="X11" t="n">
-        <v>2407.096568873657</v>
+        <v>2361.505943056986</v>
       </c>
       <c r="Y11" t="n">
-        <v>2108.89176025188</v>
+        <v>2063.30113443521</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>220.937241300597</v>
       </c>
       <c r="H12" t="n">
-        <v>119.1052045322124</v>
+        <v>119.1052045322123</v>
       </c>
       <c r="I12" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859799</v>
       </c>
       <c r="J12" t="n">
-        <v>69.93465157859802</v>
+        <v>179.810914411636</v>
       </c>
       <c r="K12" t="n">
-        <v>384.3515287087258</v>
+        <v>232.4072068993109</v>
       </c>
       <c r="L12" t="n">
-        <v>868.528217749624</v>
+        <v>716.583895940209</v>
       </c>
       <c r="M12" t="n">
-        <v>1485.518798361603</v>
+        <v>1333.574476552188</v>
       </c>
       <c r="N12" t="n">
-        <v>2035.470079472175</v>
+        <v>1512.215423660147</v>
       </c>
       <c r="O12" t="n">
-        <v>2562.787764768364</v>
+        <v>2039.533108956335</v>
       </c>
       <c r="P12" t="n">
-        <v>2653.725487735952</v>
+        <v>2445.748972877462</v>
       </c>
       <c r="Q12" t="n">
         <v>2664.59575085658</v>
@@ -5178,16 +5178,16 @@
         <v>490.7999111568626</v>
       </c>
       <c r="C13" t="n">
-        <v>413.7982515829906</v>
+        <v>413.7982515829907</v>
       </c>
       <c r="D13" t="n">
-        <v>355.6161355246899</v>
+        <v>355.61613552469</v>
       </c>
       <c r="E13" t="n">
-        <v>299.6375652963317</v>
+        <v>299.6375652963319</v>
       </c>
       <c r="F13" t="n">
-        <v>244.6821411524563</v>
+        <v>244.6821411524566</v>
       </c>
       <c r="G13" t="n">
         <v>167.9302997885903</v>
@@ -5196,13 +5196,13 @@
         <v>104.9031775006438</v>
       </c>
       <c r="I13" t="n">
-        <v>69.93465157859802</v>
+        <v>69.93465157859799</v>
       </c>
       <c r="J13" t="n">
-        <v>137.0106293959407</v>
+        <v>137.0106293959406</v>
       </c>
       <c r="K13" t="n">
-        <v>319.1086914830886</v>
+        <v>319.1086914830885</v>
       </c>
       <c r="L13" t="n">
         <v>582.4595660889142</v>
@@ -5220,7 +5220,7 @@
         <v>1608.929321817165</v>
       </c>
       <c r="Q13" t="n">
-        <v>1695.926483912367</v>
+        <v>1695.926483912368</v>
       </c>
       <c r="R13" t="n">
         <v>1653.807550513945</v>
@@ -5232,19 +5232,19 @@
         <v>1402.881538008514</v>
       </c>
       <c r="U13" t="n">
-        <v>1205.659547501323</v>
+        <v>1205.659547501322</v>
       </c>
       <c r="V13" t="n">
-        <v>1042.909582649471</v>
+        <v>1042.90958264947</v>
       </c>
       <c r="W13" t="n">
-        <v>845.426935966545</v>
+        <v>845.4269359665448</v>
       </c>
       <c r="X13" t="n">
         <v>709.3719084225625</v>
       </c>
       <c r="Y13" t="n">
-        <v>580.5138526330674</v>
+        <v>580.5138526330672</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1768.635817725123</v>
+        <v>1779.633580269253</v>
       </c>
       <c r="C14" t="n">
-        <v>1491.607824138746</v>
+        <v>1502.605586682876</v>
       </c>
       <c r="D14" t="n">
-        <v>1225.276648886031</v>
+        <v>1236.27441143016</v>
       </c>
       <c r="E14" t="n">
-        <v>977.0135454584916</v>
+        <v>942.4206821859513</v>
       </c>
       <c r="F14" t="n">
-        <v>657.9621640229191</v>
+        <v>623.3693007503787</v>
       </c>
       <c r="G14" t="n">
-        <v>332.6316300533871</v>
+        <v>298.0387667808467</v>
       </c>
       <c r="H14" t="n">
-        <v>104.5275148511384</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="I14" t="n">
         <v>69.93465157859801</v>
       </c>
       <c r="J14" t="n">
-        <v>243.8279252593009</v>
+        <v>243.8279252593011</v>
       </c>
       <c r="K14" t="n">
-        <v>625.1936695733934</v>
+        <v>625.1936695733939</v>
       </c>
       <c r="L14" t="n">
-        <v>1150.588225603151</v>
+        <v>1150.588225603152</v>
       </c>
       <c r="M14" t="n">
         <v>1751.797447352347</v>
@@ -5293,7 +5293,7 @@
         <v>2348.102865308522</v>
       </c>
       <c r="O14" t="n">
-        <v>2865.989524423013</v>
+        <v>2865.989524423014</v>
       </c>
       <c r="P14" t="n">
         <v>3270.319423338377</v>
@@ -5305,25 +5305,25 @@
         <v>3496.7325789299</v>
       </c>
       <c r="S14" t="n">
-        <v>3428.41239795739</v>
+        <v>3439.410160501519</v>
       </c>
       <c r="T14" t="n">
-        <v>3304.77103581526</v>
+        <v>3315.768798359389</v>
       </c>
       <c r="U14" t="n">
-        <v>3142.999673869646</v>
+        <v>3153.997436413776</v>
       </c>
       <c r="V14" t="n">
-        <v>2903.871309880111</v>
+        <v>2914.86907242424</v>
       </c>
       <c r="W14" t="n">
-        <v>2643.037177964032</v>
+        <v>2654.034940508161</v>
       </c>
       <c r="X14" t="n">
-        <v>2361.505943056987</v>
+        <v>2372.503705601116</v>
       </c>
       <c r="Y14" t="n">
-        <v>2063.30113443521</v>
+        <v>2074.29889697934</v>
       </c>
     </row>
     <row r="15">
@@ -5351,7 +5351,7 @@
         <v>220.937241300597</v>
       </c>
       <c r="H15" t="n">
-        <v>119.1052045322123</v>
+        <v>119.1052045322124</v>
       </c>
       <c r="I15" t="n">
         <v>69.93465157859801</v>
@@ -5360,22 +5360,22 @@
         <v>69.93465157859801</v>
       </c>
       <c r="K15" t="n">
-        <v>384.3515287087258</v>
+        <v>122.530944066273</v>
       </c>
       <c r="L15" t="n">
-        <v>501.3962758991993</v>
+        <v>606.7076331071711</v>
       </c>
       <c r="M15" t="n">
-        <v>1118.386856511179</v>
+        <v>1223.69821371915</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.414355266643</v>
+        <v>1872.725712474615</v>
       </c>
       <c r="O15" t="n">
-        <v>2294.732040562832</v>
+        <v>2400.043397770803</v>
       </c>
       <c r="P15" t="n">
-        <v>2445.748972877462</v>
+        <v>2653.725487735952</v>
       </c>
       <c r="Q15" t="n">
         <v>2664.59575085658</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>490.7999111568629</v>
+        <v>490.7999111568625</v>
       </c>
       <c r="C16" t="n">
-        <v>413.798251582991</v>
+        <v>413.7982515829906</v>
       </c>
       <c r="D16" t="n">
-        <v>355.6161355246902</v>
+        <v>355.6161355246899</v>
       </c>
       <c r="E16" t="n">
-        <v>299.6375652963321</v>
+        <v>299.6375652963318</v>
       </c>
       <c r="F16" t="n">
-        <v>244.6821411524567</v>
+        <v>244.6821411524565</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9302997885906</v>
+        <v>167.9302997885904</v>
       </c>
       <c r="H16" t="n">
         <v>104.9031775006439</v>
@@ -5436,19 +5436,19 @@
         <v>69.93465157859801</v>
       </c>
       <c r="J16" t="n">
-        <v>137.0106293959407</v>
+        <v>137.0106293959408</v>
       </c>
       <c r="K16" t="n">
-        <v>319.1086914830886</v>
+        <v>319.1086914830887</v>
       </c>
       <c r="L16" t="n">
-        <v>582.4595660889149</v>
+        <v>582.4595660889144</v>
       </c>
       <c r="M16" t="n">
-        <v>865.6171716594315</v>
+        <v>865.6171716594308</v>
       </c>
       <c r="N16" t="n">
-        <v>1149.619034811414</v>
+        <v>1149.619034811413</v>
       </c>
       <c r="O16" t="n">
         <v>1402.802877545183</v>
@@ -5469,19 +5469,19 @@
         <v>1402.881538008514</v>
       </c>
       <c r="U16" t="n">
-        <v>1205.659547501323</v>
+        <v>1205.659547501322</v>
       </c>
       <c r="V16" t="n">
-        <v>1042.909582649471</v>
+        <v>1042.90958264947</v>
       </c>
       <c r="W16" t="n">
-        <v>845.4269359665452</v>
+        <v>845.4269359665446</v>
       </c>
       <c r="X16" t="n">
-        <v>709.3719084225628</v>
+        <v>709.3719084225623</v>
       </c>
       <c r="Y16" t="n">
-        <v>580.5138526330677</v>
+        <v>580.5138526330672</v>
       </c>
     </row>
     <row r="17">
@@ -5500,10 +5500,10 @@
         <v>1255.670399430478</v>
       </c>
       <c r="E17" t="n">
-        <v>964.856045240713</v>
+        <v>964.8560452407132</v>
       </c>
       <c r="F17" t="n">
-        <v>648.8440388595851</v>
+        <v>648.8440388595852</v>
       </c>
       <c r="G17" t="n">
         <v>326.5528799444978</v>
@@ -5518,7 +5518,7 @@
         <v>243.8279252593011</v>
       </c>
       <c r="K17" t="n">
-        <v>625.1936695733939</v>
+        <v>625.1936695733934</v>
       </c>
       <c r="L17" t="n">
         <v>1150.588225603151</v>
@@ -5530,7 +5530,7 @@
         <v>2348.102865308522</v>
       </c>
       <c r="O17" t="n">
-        <v>2865.989524423014</v>
+        <v>2865.989524423013</v>
       </c>
       <c r="P17" t="n">
         <v>3270.319423338377</v>
@@ -5600,19 +5600,19 @@
         <v>494.2277915417638</v>
       </c>
       <c r="L18" t="n">
-        <v>978.4044805826619</v>
+        <v>611.2725387322373</v>
       </c>
       <c r="M18" t="n">
-        <v>1545.713390363291</v>
+        <v>1228.263119344217</v>
       </c>
       <c r="N18" t="n">
-        <v>1720.191938518637</v>
+        <v>1877.290618099681</v>
       </c>
       <c r="O18" t="n">
-        <v>2247.509623814826</v>
+        <v>2039.533108956335</v>
       </c>
       <c r="P18" t="n">
-        <v>2653.725487735952</v>
+        <v>2445.748972877462</v>
       </c>
       <c r="Q18" t="n">
         <v>2664.59575085658</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>469.5242857757502</v>
+        <v>469.5242857757504</v>
       </c>
       <c r="C19" t="n">
-        <v>395.5620012563229</v>
+        <v>395.5620012563231</v>
       </c>
       <c r="D19" t="n">
-        <v>340.4192602524668</v>
+        <v>340.419260252467</v>
       </c>
       <c r="E19" t="n">
-        <v>287.4800650785534</v>
+        <v>287.4800650785535</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5640159891226</v>
+        <v>235.5640159891227</v>
       </c>
       <c r="G19" t="n">
-        <v>161.8515496797012</v>
+        <v>161.8515496797013</v>
       </c>
       <c r="H19" t="n">
-        <v>101.8638024461992</v>
+        <v>101.8638024461993</v>
       </c>
       <c r="I19" t="n">
         <v>69.93465157859801</v>
       </c>
       <c r="J19" t="n">
-        <v>139.989520886802</v>
+        <v>139.9895208868019</v>
       </c>
       <c r="K19" t="n">
         <v>325.066474464811</v>
@@ -5682,22 +5682,22 @@
         <v>591.3962405614977</v>
       </c>
       <c r="M19" t="n">
-        <v>877.5327376228755</v>
+        <v>877.5327376228754</v>
       </c>
       <c r="N19" t="n">
         <v>1164.513492265719</v>
       </c>
       <c r="O19" t="n">
-        <v>1420.67622649035</v>
+        <v>1420.676226490349</v>
       </c>
       <c r="P19" t="n">
-        <v>1629.781562253194</v>
+        <v>1629.781562253193</v>
       </c>
       <c r="Q19" t="n">
-        <v>1647.296483041253</v>
+        <v>1647.296483041254</v>
       </c>
       <c r="R19" t="n">
-        <v>1608.216924697275</v>
+        <v>1608.216924697276</v>
       </c>
       <c r="S19" t="n">
         <v>1494.364726627559</v>
@@ -5706,19 +5706,19 @@
         <v>1363.369662300734</v>
       </c>
       <c r="U19" t="n">
-        <v>1169.187046847986</v>
+        <v>1169.187046847987</v>
       </c>
       <c r="V19" t="n">
-        <v>1009.476457050579</v>
+        <v>1009.47645705058</v>
       </c>
       <c r="W19" t="n">
-        <v>815.0331854220984</v>
+        <v>815.0331854220988</v>
       </c>
       <c r="X19" t="n">
-        <v>682.0175329325607</v>
+        <v>682.017532932561</v>
       </c>
       <c r="Y19" t="n">
-        <v>556.1988521975102</v>
+        <v>556.1988521975105</v>
       </c>
     </row>
     <row r="20">
@@ -5737,25 +5737,25 @@
         <v>1255.670399430478</v>
       </c>
       <c r="E20" t="n">
-        <v>964.8560452407135</v>
+        <v>964.8560452407132</v>
       </c>
       <c r="F20" t="n">
-        <v>648.8440388595856</v>
+        <v>648.8440388595849</v>
       </c>
       <c r="G20" t="n">
-        <v>326.5528799444978</v>
+        <v>326.5528799444976</v>
       </c>
       <c r="H20" t="n">
-        <v>101.4881397966937</v>
+        <v>101.4881397966936</v>
       </c>
       <c r="I20" t="n">
         <v>69.93465157859801</v>
       </c>
       <c r="J20" t="n">
-        <v>243.8279252593011</v>
+        <v>243.8279252593007</v>
       </c>
       <c r="K20" t="n">
-        <v>625.1936695733939</v>
+        <v>625.1936695733932</v>
       </c>
       <c r="L20" t="n">
         <v>1150.588225603151</v>
@@ -5785,7 +5785,7 @@
         <v>3310.84978592415</v>
       </c>
       <c r="U20" t="n">
-        <v>3152.117799032981</v>
+        <v>3152.11779903298</v>
       </c>
       <c r="V20" t="n">
         <v>2916.02881009789</v>
@@ -5837,19 +5837,19 @@
         <v>384.3515287087258</v>
       </c>
       <c r="L21" t="n">
-        <v>501.3962758991993</v>
+        <v>868.5282177496239</v>
       </c>
       <c r="M21" t="n">
-        <v>1118.386856511178</v>
+        <v>1485.518798361603</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.414355266643</v>
+        <v>1659.997346516949</v>
       </c>
       <c r="O21" t="n">
-        <v>2294.732040562831</v>
+        <v>2187.315031813138</v>
       </c>
       <c r="P21" t="n">
-        <v>2653.725487735952</v>
+        <v>2593.530895734265</v>
       </c>
       <c r="Q21" t="n">
         <v>2664.59575085658</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>469.5242857757502</v>
+        <v>469.5242857757498</v>
       </c>
       <c r="C22" t="n">
-        <v>395.5620012563229</v>
+        <v>395.5620012563226</v>
       </c>
       <c r="D22" t="n">
-        <v>340.4192602524668</v>
+        <v>340.4192602524665</v>
       </c>
       <c r="E22" t="n">
-        <v>287.4800650785534</v>
+        <v>287.4800650785531</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5640159891226</v>
+        <v>235.5640159891225</v>
       </c>
       <c r="G22" t="n">
-        <v>161.8515496797012</v>
+        <v>161.8515496797011</v>
       </c>
       <c r="H22" t="n">
         <v>101.8638024461992</v>
@@ -5913,34 +5913,34 @@
         <v>139.989520886802</v>
       </c>
       <c r="K22" t="n">
-        <v>325.066474464811</v>
+        <v>325.0664744648111</v>
       </c>
       <c r="L22" t="n">
-        <v>591.3962405614977</v>
+        <v>591.396240561498</v>
       </c>
       <c r="M22" t="n">
-        <v>805.0716048248719</v>
+        <v>877.5327376228759</v>
       </c>
       <c r="N22" t="n">
-        <v>1092.052359467715</v>
+        <v>1164.513492265719</v>
       </c>
       <c r="O22" t="n">
-        <v>1348.215093692346</v>
+        <v>1348.215093692345</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.32042945519</v>
+        <v>1557.320429455189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1647.296483041253</v>
+        <v>1647.296483041252</v>
       </c>
       <c r="R22" t="n">
-        <v>1608.216924697275</v>
+        <v>1608.216924697274</v>
       </c>
       <c r="S22" t="n">
-        <v>1494.364726627559</v>
+        <v>1494.364726627558</v>
       </c>
       <c r="T22" t="n">
-        <v>1363.369662300734</v>
+        <v>1363.369662300733</v>
       </c>
       <c r="U22" t="n">
         <v>1169.187046847986</v>
@@ -5949,13 +5949,13 @@
         <v>1009.476457050579</v>
       </c>
       <c r="W22" t="n">
-        <v>815.0331854220984</v>
+        <v>815.0331854220977</v>
       </c>
       <c r="X22" t="n">
-        <v>682.0175329325607</v>
+        <v>682.0175329325601</v>
       </c>
       <c r="Y22" t="n">
-        <v>556.1988521975102</v>
+        <v>556.1988521975097</v>
       </c>
     </row>
     <row r="23">
@@ -5971,16 +5971,16 @@
         <v>1518.962199628748</v>
       </c>
       <c r="D23" t="n">
-        <v>1255.670399430478</v>
+        <v>1255.670399430477</v>
       </c>
       <c r="E23" t="n">
-        <v>964.856045240713</v>
+        <v>964.8560452407128</v>
       </c>
       <c r="F23" t="n">
-        <v>648.8440388595851</v>
+        <v>648.844038859585</v>
       </c>
       <c r="G23" t="n">
-        <v>326.5528799444978</v>
+        <v>326.5528799444977</v>
       </c>
       <c r="H23" t="n">
         <v>101.4881397966937</v>
@@ -6022,16 +6022,16 @@
         <v>3310.849785924149</v>
       </c>
       <c r="U23" t="n">
-        <v>3152.117799032981</v>
+        <v>3152.11779903298</v>
       </c>
       <c r="V23" t="n">
-        <v>2916.02881009789</v>
+        <v>2916.028810097889</v>
       </c>
       <c r="W23" t="n">
-        <v>2658.234053236255</v>
+        <v>2658.234053236254</v>
       </c>
       <c r="X23" t="n">
-        <v>2379.742193383655</v>
+        <v>2379.742193383654</v>
       </c>
       <c r="Y23" t="n">
         <v>2084.576759816322</v>
@@ -6071,13 +6071,13 @@
         <v>179.810914411636</v>
       </c>
       <c r="K24" t="n">
-        <v>232.407206899311</v>
+        <v>494.2277915417638</v>
       </c>
       <c r="L24" t="n">
-        <v>716.5838959402091</v>
+        <v>978.4044805826619</v>
       </c>
       <c r="M24" t="n">
-        <v>1333.574476552188</v>
+        <v>1337.7368755048</v>
       </c>
       <c r="N24" t="n">
         <v>1512.215423660147</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>469.5242857757502</v>
+        <v>469.5242857757499</v>
       </c>
       <c r="C25" t="n">
-        <v>395.5620012563229</v>
+        <v>395.5620012563227</v>
       </c>
       <c r="D25" t="n">
-        <v>340.4192602524668</v>
+        <v>340.4192602524667</v>
       </c>
       <c r="E25" t="n">
-        <v>287.4800650785534</v>
+        <v>287.4800650785533</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5640159891226</v>
+        <v>235.5640159891225</v>
       </c>
       <c r="G25" t="n">
         <v>161.8515496797012</v>
@@ -6150,22 +6150,22 @@
         <v>139.989520886802</v>
       </c>
       <c r="K25" t="n">
-        <v>325.066474464811</v>
+        <v>325.0664744648111</v>
       </c>
       <c r="L25" t="n">
-        <v>591.3962405614977</v>
+        <v>591.396240561498</v>
       </c>
       <c r="M25" t="n">
-        <v>877.5327376228755</v>
+        <v>805.0716048248713</v>
       </c>
       <c r="N25" t="n">
         <v>1092.052359467715</v>
       </c>
       <c r="O25" t="n">
-        <v>1348.215093692346</v>
+        <v>1348.215093692345</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.32042945519</v>
+        <v>1557.320429455189</v>
       </c>
       <c r="Q25" t="n">
         <v>1647.296483041253</v>
@@ -6174,10 +6174,10 @@
         <v>1608.216924697275</v>
       </c>
       <c r="S25" t="n">
-        <v>1494.364726627559</v>
+        <v>1494.364726627558</v>
       </c>
       <c r="T25" t="n">
-        <v>1363.369662300734</v>
+        <v>1363.369662300733</v>
       </c>
       <c r="U25" t="n">
         <v>1169.187046847986</v>
@@ -6186,13 +6186,13 @@
         <v>1009.476457050579</v>
       </c>
       <c r="W25" t="n">
-        <v>815.0331854220984</v>
+        <v>815.0331854220981</v>
       </c>
       <c r="X25" t="n">
-        <v>682.0175329325607</v>
+        <v>682.0175329325604</v>
       </c>
       <c r="Y25" t="n">
-        <v>556.1988521975102</v>
+        <v>556.19885219751</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1814.226443541793</v>
+        <v>1768.635817725123</v>
       </c>
       <c r="C26" t="n">
-        <v>1537.198449955416</v>
+        <v>1491.607824138747</v>
       </c>
       <c r="D26" t="n">
-        <v>1270.867274702701</v>
+        <v>1225.276648886031</v>
       </c>
       <c r="E26" t="n">
-        <v>977.0135454584916</v>
+        <v>931.4229196418219</v>
       </c>
       <c r="F26" t="n">
-        <v>657.9621640229191</v>
+        <v>612.3715382062493</v>
       </c>
       <c r="G26" t="n">
-        <v>332.631630053387</v>
+        <v>287.0410042367173</v>
       </c>
       <c r="H26" t="n">
         <v>104.5275148511383</v>
       </c>
       <c r="I26" t="n">
-        <v>69.93465157859801</v>
+        <v>69.93465157859799</v>
       </c>
       <c r="J26" t="n">
-        <v>243.8279252593011</v>
+        <v>243.8279252593007</v>
       </c>
       <c r="K26" t="n">
-        <v>625.1936695733939</v>
+        <v>625.1936695733932</v>
       </c>
       <c r="L26" t="n">
         <v>1150.588225603151</v>
@@ -6238,13 +6238,13 @@
         <v>1751.797447352347</v>
       </c>
       <c r="N26" t="n">
-        <v>2348.102865308522</v>
+        <v>2348.102865308521</v>
       </c>
       <c r="O26" t="n">
-        <v>2865.989524423014</v>
+        <v>2865.989524423013</v>
       </c>
       <c r="P26" t="n">
-        <v>3270.319423338377</v>
+        <v>3270.319423338376</v>
       </c>
       <c r="Q26" t="n">
         <v>3496.7325789299</v>
@@ -6253,25 +6253,25 @@
         <v>3496.7325789299</v>
       </c>
       <c r="S26" t="n">
-        <v>3428.41239795739</v>
+        <v>3428.412397957389</v>
       </c>
       <c r="T26" t="n">
-        <v>3304.77103581526</v>
+        <v>3304.771035815259</v>
       </c>
       <c r="U26" t="n">
         <v>3142.999673869646</v>
       </c>
       <c r="V26" t="n">
-        <v>2903.871309880111</v>
+        <v>2903.87130988011</v>
       </c>
       <c r="W26" t="n">
-        <v>2688.627803780702</v>
+        <v>2643.037177964031</v>
       </c>
       <c r="X26" t="n">
-        <v>2407.096568873657</v>
+        <v>2361.505943056986</v>
       </c>
       <c r="Y26" t="n">
-        <v>2108.89176025188</v>
+        <v>2063.30113443521</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>220.937241300597</v>
       </c>
       <c r="H27" t="n">
-        <v>119.1052045322124</v>
+        <v>119.1052045322123</v>
       </c>
       <c r="I27" t="n">
-        <v>69.93465157859801</v>
+        <v>69.93465157859799</v>
       </c>
       <c r="J27" t="n">
-        <v>179.810914411636</v>
+        <v>69.93465157859799</v>
       </c>
       <c r="K27" t="n">
-        <v>494.2277915417638</v>
+        <v>122.530944066273</v>
       </c>
       <c r="L27" t="n">
-        <v>951.3991813302033</v>
+        <v>606.7076331071711</v>
       </c>
       <c r="M27" t="n">
-        <v>1568.389761942183</v>
+        <v>1223.69821371915</v>
       </c>
       <c r="N27" t="n">
-        <v>2217.417260697647</v>
+        <v>1872.725712474615</v>
       </c>
       <c r="O27" t="n">
-        <v>2354.811249909873</v>
+        <v>2400.043397770803</v>
       </c>
       <c r="P27" t="n">
-        <v>2445.748972877462</v>
+        <v>2653.725487735952</v>
       </c>
       <c r="Q27" t="n">
         <v>2664.59575085658</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>490.7999111568627</v>
+        <v>490.7999111568624</v>
       </c>
       <c r="C28" t="n">
-        <v>413.7982515829908</v>
+        <v>413.7982515829905</v>
       </c>
       <c r="D28" t="n">
-        <v>355.61613552469</v>
+        <v>355.6161355246898</v>
       </c>
       <c r="E28" t="n">
-        <v>299.6375652963319</v>
+        <v>299.6375652963317</v>
       </c>
       <c r="F28" t="n">
-        <v>244.6821411524566</v>
+        <v>244.6821411524563</v>
       </c>
       <c r="G28" t="n">
         <v>167.9302997885904</v>
       </c>
       <c r="H28" t="n">
-        <v>104.9031775006439</v>
+        <v>104.9031775006438</v>
       </c>
       <c r="I28" t="n">
-        <v>69.93465157859801</v>
+        <v>69.93465157859799</v>
       </c>
       <c r="J28" t="n">
         <v>137.0106293959408</v>
@@ -6429,7 +6429,7 @@
         <v>709.3719084225625</v>
       </c>
       <c r="Y28" t="n">
-        <v>580.5138526330674</v>
+        <v>580.513852633067</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1814.226443541793</v>
+        <v>1768.635817725123</v>
       </c>
       <c r="C29" t="n">
-        <v>1537.198449955416</v>
+        <v>1491.607824138747</v>
       </c>
       <c r="D29" t="n">
-        <v>1270.867274702701</v>
+        <v>1225.276648886031</v>
       </c>
       <c r="E29" t="n">
-        <v>977.0135454584916</v>
+        <v>931.4229196418219</v>
       </c>
       <c r="F29" t="n">
-        <v>657.9621640229191</v>
+        <v>612.3715382062493</v>
       </c>
       <c r="G29" t="n">
-        <v>332.631630053387</v>
+        <v>287.0410042367173</v>
       </c>
       <c r="H29" t="n">
         <v>104.5275148511383</v>
       </c>
       <c r="I29" t="n">
-        <v>69.93465157859801</v>
+        <v>69.93465157859799</v>
       </c>
       <c r="J29" t="n">
-        <v>243.8279252593007</v>
+        <v>243.8279252593006</v>
       </c>
       <c r="K29" t="n">
-        <v>625.1936695733932</v>
+        <v>625.1936695733934</v>
       </c>
       <c r="L29" t="n">
         <v>1150.588225603151</v>
@@ -6481,7 +6481,7 @@
         <v>2865.989524423013</v>
       </c>
       <c r="P29" t="n">
-        <v>3270.319423338377</v>
+        <v>3270.319423338376</v>
       </c>
       <c r="Q29" t="n">
         <v>3496.7325789299</v>
@@ -6490,25 +6490,25 @@
         <v>3496.7325789299</v>
       </c>
       <c r="S29" t="n">
-        <v>3428.41239795739</v>
+        <v>3428.412397957389</v>
       </c>
       <c r="T29" t="n">
-        <v>3304.77103581526</v>
+        <v>3304.771035815259</v>
       </c>
       <c r="U29" t="n">
         <v>3142.999673869646</v>
       </c>
       <c r="V29" t="n">
-        <v>2949.461935696781</v>
+        <v>2903.87130988011</v>
       </c>
       <c r="W29" t="n">
-        <v>2688.627803780702</v>
+        <v>2643.037177964031</v>
       </c>
       <c r="X29" t="n">
-        <v>2407.096568873657</v>
+        <v>2361.505943056986</v>
       </c>
       <c r="Y29" t="n">
-        <v>2108.89176025188</v>
+        <v>2063.30113443521</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>220.937241300597</v>
       </c>
       <c r="H30" t="n">
-        <v>119.1052045322124</v>
+        <v>119.1052045322123</v>
       </c>
       <c r="I30" t="n">
-        <v>69.93465157859801</v>
+        <v>69.93465157859799</v>
       </c>
       <c r="J30" t="n">
-        <v>179.810914411636</v>
+        <v>69.93465157859799</v>
       </c>
       <c r="K30" t="n">
-        <v>232.407206899311</v>
+        <v>122.530944066273</v>
       </c>
       <c r="L30" t="n">
-        <v>349.4519540897845</v>
+        <v>606.7076331071711</v>
       </c>
       <c r="M30" t="n">
-        <v>966.4425347017637</v>
+        <v>1223.69821371915</v>
       </c>
       <c r="N30" t="n">
-        <v>1615.470033457228</v>
+        <v>1872.725712474615</v>
       </c>
       <c r="O30" t="n">
-        <v>2142.787718753417</v>
+        <v>2400.043397770803</v>
       </c>
       <c r="P30" t="n">
-        <v>2445.748972877462</v>
+        <v>2490.981120738392</v>
       </c>
       <c r="Q30" t="n">
         <v>2664.59575085658</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>490.7999111568626</v>
+        <v>490.7999111568625</v>
       </c>
       <c r="C31" t="n">
-        <v>413.7982515829907</v>
+        <v>413.7982515829906</v>
       </c>
       <c r="D31" t="n">
-        <v>355.61613552469</v>
+        <v>355.6161355246899</v>
       </c>
       <c r="E31" t="n">
-        <v>299.6375652963319</v>
+        <v>299.6375652963318</v>
       </c>
       <c r="F31" t="n">
         <v>244.6821411524565</v>
@@ -6615,19 +6615,19 @@
         <v>167.9302997885905</v>
       </c>
       <c r="H31" t="n">
-        <v>104.9031775006439</v>
+        <v>104.9031775006438</v>
       </c>
       <c r="I31" t="n">
-        <v>69.93465157859801</v>
+        <v>69.93465157859799</v>
       </c>
       <c r="J31" t="n">
         <v>137.0106293959408</v>
       </c>
       <c r="K31" t="n">
-        <v>319.1086914830886</v>
+        <v>319.1086914830887</v>
       </c>
       <c r="L31" t="n">
-        <v>582.4595660889142</v>
+        <v>582.4595660889144</v>
       </c>
       <c r="M31" t="n">
         <v>865.6171716594308</v>
@@ -6648,7 +6648,7 @@
         <v>1653.807550513945</v>
       </c>
       <c r="S31" t="n">
-        <v>1536.915977389784</v>
+        <v>1536.915977389783</v>
       </c>
       <c r="T31" t="n">
         <v>1402.881538008514</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1792.950818160679</v>
+        <v>1792.95081816068</v>
       </c>
       <c r="C32" t="n">
-        <v>1518.962199628747</v>
+        <v>1518.962199628748</v>
       </c>
       <c r="D32" t="n">
-        <v>1255.670399430477</v>
+        <v>1255.670399430478</v>
       </c>
       <c r="E32" t="n">
-        <v>964.8560452407123</v>
+        <v>964.856045240713</v>
       </c>
       <c r="F32" t="n">
-        <v>648.8440388595847</v>
+        <v>648.8440388595851</v>
       </c>
       <c r="G32" t="n">
-        <v>326.5528799444973</v>
+        <v>326.5528799444978</v>
       </c>
       <c r="H32" t="n">
         <v>101.4881397966937</v>
@@ -6733,16 +6733,16 @@
         <v>3310.84978592415</v>
       </c>
       <c r="U32" t="n">
-        <v>3152.11779903298</v>
+        <v>3152.117799032981</v>
       </c>
       <c r="V32" t="n">
-        <v>2916.028810097889</v>
+        <v>2916.02881009789</v>
       </c>
       <c r="W32" t="n">
-        <v>2658.234053236254</v>
+        <v>2658.234053236255</v>
       </c>
       <c r="X32" t="n">
-        <v>2379.742193383654</v>
+        <v>2379.742193383655</v>
       </c>
       <c r="Y32" t="n">
         <v>2084.576759816322</v>
@@ -6779,22 +6779,22 @@
         <v>69.93465157859801</v>
       </c>
       <c r="J33" t="n">
-        <v>179.810914411636</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="K33" t="n">
-        <v>494.2277915417638</v>
+        <v>151.9443513357674</v>
       </c>
       <c r="L33" t="n">
-        <v>951.3991813302033</v>
+        <v>636.1210403766655</v>
       </c>
       <c r="M33" t="n">
-        <v>1568.389761942183</v>
+        <v>1253.111620988645</v>
       </c>
       <c r="N33" t="n">
-        <v>2217.417260697647</v>
+        <v>1902.139119744109</v>
       </c>
       <c r="O33" t="n">
-        <v>2354.811249909873</v>
+        <v>2039.533108956335</v>
       </c>
       <c r="P33" t="n">
         <v>2445.748972877462</v>
@@ -6858,25 +6858,25 @@
         <v>69.93465157859801</v>
       </c>
       <c r="J34" t="n">
-        <v>139.989520886802</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="K34" t="n">
-        <v>325.066474464811</v>
+        <v>252.6053416668073</v>
       </c>
       <c r="L34" t="n">
-        <v>591.3962405614977</v>
+        <v>518.9351077634941</v>
       </c>
       <c r="M34" t="n">
-        <v>877.5327376228755</v>
+        <v>805.0716048248719</v>
       </c>
       <c r="N34" t="n">
-        <v>1164.513492265719</v>
+        <v>1092.052359467715</v>
       </c>
       <c r="O34" t="n">
-        <v>1420.67622649035</v>
+        <v>1348.215093692346</v>
       </c>
       <c r="P34" t="n">
-        <v>1629.781562253194</v>
+        <v>1557.32042945519</v>
       </c>
       <c r="Q34" t="n">
         <v>1647.296483041253</v>
@@ -6919,16 +6919,16 @@
         <v>1518.962199628748</v>
       </c>
       <c r="D35" t="n">
-        <v>1255.670399430478</v>
+        <v>1255.670399430477</v>
       </c>
       <c r="E35" t="n">
-        <v>964.856045240713</v>
+        <v>964.8560452407125</v>
       </c>
       <c r="F35" t="n">
-        <v>648.8440388595851</v>
+        <v>648.8440388595847</v>
       </c>
       <c r="G35" t="n">
-        <v>326.5528799444978</v>
+        <v>326.5528799444973</v>
       </c>
       <c r="H35" t="n">
         <v>101.4881397966937</v>
@@ -6940,10 +6940,10 @@
         <v>243.8279252593011</v>
       </c>
       <c r="K35" t="n">
-        <v>625.1936695733934</v>
+        <v>625.1936695733939</v>
       </c>
       <c r="L35" t="n">
-        <v>1150.588225603151</v>
+        <v>1150.588225603152</v>
       </c>
       <c r="M35" t="n">
         <v>1751.797447352347</v>
@@ -6952,7 +6952,7 @@
         <v>2348.102865308522</v>
       </c>
       <c r="O35" t="n">
-        <v>2865.989524423013</v>
+        <v>2865.989524423014</v>
       </c>
       <c r="P35" t="n">
         <v>3270.319423338377</v>
@@ -6964,10 +6964,10 @@
         <v>3496.7325789299</v>
       </c>
       <c r="S35" t="n">
-        <v>3431.451773011835</v>
+        <v>3431.451773011834</v>
       </c>
       <c r="T35" t="n">
-        <v>3310.84978592415</v>
+        <v>3310.849785924149</v>
       </c>
       <c r="U35" t="n">
         <v>3152.11779903298</v>
@@ -7019,13 +7019,13 @@
         <v>179.810914411636</v>
       </c>
       <c r="K36" t="n">
-        <v>236.569605851923</v>
+        <v>494.2277915417638</v>
       </c>
       <c r="L36" t="n">
-        <v>720.7462948928211</v>
+        <v>978.4044805826619</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.7368755048</v>
+        <v>1134.347048082141</v>
       </c>
       <c r="N36" t="n">
         <v>1512.215423660147</v>
@@ -7071,55 +7071,55 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>469.5242857757502</v>
+        <v>469.5242857757504</v>
       </c>
       <c r="C37" t="n">
-        <v>395.5620012563229</v>
+        <v>395.5620012563231</v>
       </c>
       <c r="D37" t="n">
-        <v>340.4192602524668</v>
+        <v>340.419260252467</v>
       </c>
       <c r="E37" t="n">
-        <v>287.4800650785534</v>
+        <v>287.4800650785535</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5640159891226</v>
+        <v>235.5640159891227</v>
       </c>
       <c r="G37" t="n">
-        <v>161.8515496797012</v>
+        <v>161.8515496797013</v>
       </c>
       <c r="H37" t="n">
-        <v>101.8638024461992</v>
+        <v>101.8638024461993</v>
       </c>
       <c r="I37" t="n">
         <v>69.93465157859801</v>
       </c>
       <c r="J37" t="n">
-        <v>139.989520886802</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="K37" t="n">
-        <v>325.066474464811</v>
+        <v>255.0116051566071</v>
       </c>
       <c r="L37" t="n">
-        <v>591.3962405614977</v>
+        <v>521.3413712532938</v>
       </c>
       <c r="M37" t="n">
-        <v>877.5327376228755</v>
+        <v>807.4778683146715</v>
       </c>
       <c r="N37" t="n">
-        <v>1092.052359467715</v>
+        <v>1092.052359467716</v>
       </c>
       <c r="O37" t="n">
         <v>1348.215093692346</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.32042945519</v>
+        <v>1557.320429455191</v>
       </c>
       <c r="Q37" t="n">
-        <v>1647.296483041253</v>
+        <v>1647.296483041254</v>
       </c>
       <c r="R37" t="n">
-        <v>1608.216924697275</v>
+        <v>1608.216924697276</v>
       </c>
       <c r="S37" t="n">
         <v>1494.364726627559</v>
@@ -7128,19 +7128,19 @@
         <v>1363.369662300734</v>
       </c>
       <c r="U37" t="n">
-        <v>1169.187046847986</v>
+        <v>1169.187046847987</v>
       </c>
       <c r="V37" t="n">
-        <v>1009.476457050579</v>
+        <v>1009.47645705058</v>
       </c>
       <c r="W37" t="n">
-        <v>815.0331854220984</v>
+        <v>815.0331854220988</v>
       </c>
       <c r="X37" t="n">
-        <v>682.0175329325607</v>
+        <v>682.017532932561</v>
       </c>
       <c r="Y37" t="n">
-        <v>556.1988521975102</v>
+        <v>556.1988521975105</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1792.95081816068</v>
+        <v>1792.950818160681</v>
       </c>
       <c r="C38" t="n">
-        <v>1518.962199628748</v>
+        <v>1518.962199628749</v>
       </c>
       <c r="D38" t="n">
-        <v>1255.670399430477</v>
+        <v>1255.670399430478</v>
       </c>
       <c r="E38" t="n">
-        <v>964.8560452407123</v>
+        <v>964.856045240713</v>
       </c>
       <c r="F38" t="n">
-        <v>648.8440388595847</v>
+        <v>648.8440388595851</v>
       </c>
       <c r="G38" t="n">
-        <v>326.5528799444975</v>
+        <v>326.5528799444978</v>
       </c>
       <c r="H38" t="n">
-        <v>101.4881397966935</v>
+        <v>101.4881397966937</v>
       </c>
       <c r="I38" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J38" t="n">
-        <v>243.8279252593007</v>
+        <v>243.8279252593011</v>
       </c>
       <c r="K38" t="n">
-        <v>625.1936695733932</v>
+        <v>625.1936695733934</v>
       </c>
       <c r="L38" t="n">
         <v>1150.588225603151</v>
@@ -7192,7 +7192,7 @@
         <v>2865.989524423013</v>
       </c>
       <c r="P38" t="n">
-        <v>3270.319423338376</v>
+        <v>3270.319423338377</v>
       </c>
       <c r="Q38" t="n">
         <v>3496.7325789299</v>
@@ -7201,25 +7201,25 @@
         <v>3496.7325789299</v>
       </c>
       <c r="S38" t="n">
-        <v>3431.451773011834</v>
+        <v>3431.451773011835</v>
       </c>
       <c r="T38" t="n">
-        <v>3310.849785924149</v>
+        <v>3310.84978592415</v>
       </c>
       <c r="U38" t="n">
-        <v>3152.117799032979</v>
+        <v>3152.117799032981</v>
       </c>
       <c r="V38" t="n">
-        <v>2916.028810097889</v>
+        <v>2916.02881009789</v>
       </c>
       <c r="W38" t="n">
-        <v>2658.234053236254</v>
+        <v>2658.234053236255</v>
       </c>
       <c r="X38" t="n">
-        <v>2379.742193383654</v>
+        <v>2379.742193383655</v>
       </c>
       <c r="Y38" t="n">
-        <v>2084.576759816322</v>
+        <v>2084.576759816323</v>
       </c>
     </row>
     <row r="39">
@@ -7247,28 +7247,28 @@
         <v>220.937241300597</v>
       </c>
       <c r="H39" t="n">
-        <v>119.1052045322123</v>
+        <v>119.1052045322124</v>
       </c>
       <c r="I39" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J39" t="n">
         <v>179.810914411636</v>
       </c>
       <c r="K39" t="n">
-        <v>494.2277915417637</v>
+        <v>494.2277915417638</v>
       </c>
       <c r="L39" t="n">
-        <v>978.4044805826618</v>
+        <v>978.4044805826619</v>
       </c>
       <c r="M39" t="n">
-        <v>1595.395061194641</v>
+        <v>1337.7368755048</v>
       </c>
       <c r="N39" t="n">
-        <v>1827.493564613684</v>
+        <v>1512.215423660147</v>
       </c>
       <c r="O39" t="n">
-        <v>2354.811249909873</v>
+        <v>2039.533108956335</v>
       </c>
       <c r="P39" t="n">
         <v>2445.748972877462</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>469.524285775749</v>
+        <v>469.5242857757504</v>
       </c>
       <c r="C40" t="n">
-        <v>395.5620012563219</v>
+        <v>395.5620012563231</v>
       </c>
       <c r="D40" t="n">
-        <v>340.419260252466</v>
+        <v>340.419260252467</v>
       </c>
       <c r="E40" t="n">
-        <v>287.4800650785527</v>
+        <v>287.4800650785535</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5640159891221</v>
+        <v>235.5640159891227</v>
       </c>
       <c r="G40" t="n">
-        <v>161.8515496797009</v>
+        <v>161.8515496797013</v>
       </c>
       <c r="H40" t="n">
-        <v>101.8638024461991</v>
+        <v>101.8638024461993</v>
       </c>
       <c r="I40" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J40" t="n">
-        <v>139.9895208868021</v>
+        <v>139.9895208868019</v>
       </c>
       <c r="K40" t="n">
-        <v>325.0664744648113</v>
+        <v>325.066474464811</v>
       </c>
       <c r="L40" t="n">
-        <v>591.3962405614983</v>
+        <v>591.3962405614977</v>
       </c>
       <c r="M40" t="n">
-        <v>877.5327376228763</v>
+        <v>877.5327376228754</v>
       </c>
       <c r="N40" t="n">
-        <v>1164.51349226572</v>
+        <v>1164.513492265719</v>
       </c>
       <c r="O40" t="n">
-        <v>1420.676226490351</v>
+        <v>1348.215093692346</v>
       </c>
       <c r="P40" t="n">
-        <v>1629.781562253195</v>
+        <v>1557.320429455191</v>
       </c>
       <c r="Q40" t="n">
-        <v>1647.296483041251</v>
+        <v>1647.296483041254</v>
       </c>
       <c r="R40" t="n">
-        <v>1608.216924697273</v>
+        <v>1608.216924697276</v>
       </c>
       <c r="S40" t="n">
-        <v>1494.364726627557</v>
+        <v>1494.364726627559</v>
       </c>
       <c r="T40" t="n">
-        <v>1363.369662300732</v>
+        <v>1363.369662300734</v>
       </c>
       <c r="U40" t="n">
-        <v>1169.187046847985</v>
+        <v>1169.187046847987</v>
       </c>
       <c r="V40" t="n">
-        <v>1009.476457050578</v>
+        <v>1009.47645705058</v>
       </c>
       <c r="W40" t="n">
-        <v>815.0331854220967</v>
+        <v>815.0331854220988</v>
       </c>
       <c r="X40" t="n">
-        <v>682.0175329325592</v>
+        <v>682.017532932561</v>
       </c>
       <c r="Y40" t="n">
-        <v>556.1988521975089</v>
+        <v>556.1988521975105</v>
       </c>
     </row>
     <row r="41">
@@ -7408,28 +7408,28 @@
         <v>104.5275148511383</v>
       </c>
       <c r="I41" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J41" t="n">
-        <v>243.8279252593004</v>
+        <v>243.8279252593007</v>
       </c>
       <c r="K41" t="n">
-        <v>625.1936695733929</v>
+        <v>625.1936695733932</v>
       </c>
       <c r="L41" t="n">
-        <v>1150.58822560315</v>
+        <v>1150.588225603151</v>
       </c>
       <c r="M41" t="n">
         <v>1751.797447352347</v>
       </c>
       <c r="N41" t="n">
-        <v>2348.102865308521</v>
+        <v>2348.102865308522</v>
       </c>
       <c r="O41" t="n">
         <v>2865.989524423013</v>
       </c>
       <c r="P41" t="n">
-        <v>3270.319423338376</v>
+        <v>3270.319423338377</v>
       </c>
       <c r="Q41" t="n">
         <v>3496.7325789299</v>
@@ -7438,22 +7438,22 @@
         <v>3496.7325789299</v>
       </c>
       <c r="S41" t="n">
-        <v>3428.412397957389</v>
+        <v>3428.41239795739</v>
       </c>
       <c r="T41" t="n">
-        <v>3304.771035815259</v>
+        <v>3304.77103581526</v>
       </c>
       <c r="U41" t="n">
         <v>3142.999673869646</v>
       </c>
       <c r="V41" t="n">
-        <v>2903.87130988011</v>
+        <v>2903.871309880111</v>
       </c>
       <c r="W41" t="n">
-        <v>2643.037177964031</v>
+        <v>2643.037177964032</v>
       </c>
       <c r="X41" t="n">
-        <v>2361.505943056986</v>
+        <v>2361.505943056987</v>
       </c>
       <c r="Y41" t="n">
         <v>2063.30113443521</v>
@@ -7484,22 +7484,22 @@
         <v>220.937241300597</v>
       </c>
       <c r="H42" t="n">
-        <v>119.1052045322123</v>
+        <v>119.1052045322124</v>
       </c>
       <c r="I42" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J42" t="n">
         <v>179.810914411636</v>
       </c>
       <c r="K42" t="n">
-        <v>494.2277915417637</v>
+        <v>494.2277915417638</v>
       </c>
       <c r="L42" t="n">
-        <v>978.4044805826618</v>
+        <v>978.4044805826619</v>
       </c>
       <c r="M42" t="n">
-        <v>1134.347048082141</v>
+        <v>1337.7368755048</v>
       </c>
       <c r="N42" t="n">
         <v>1512.215423660147</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>490.7999111568625</v>
+        <v>490.7999111568626</v>
       </c>
       <c r="C43" t="n">
-        <v>413.7982515829906</v>
+        <v>413.7982515829907</v>
       </c>
       <c r="D43" t="n">
-        <v>355.6161355246899</v>
+        <v>355.61613552469</v>
       </c>
       <c r="E43" t="n">
-        <v>299.6375652963318</v>
+        <v>299.6375652963319</v>
       </c>
       <c r="F43" t="n">
         <v>244.6821411524565</v>
@@ -7563,10 +7563,10 @@
         <v>167.9302997885905</v>
       </c>
       <c r="H43" t="n">
-        <v>104.9031775006438</v>
+        <v>104.9031775006439</v>
       </c>
       <c r="I43" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J43" t="n">
         <v>137.0106293959408</v>
@@ -7596,7 +7596,7 @@
         <v>1653.807550513945</v>
       </c>
       <c r="S43" t="n">
-        <v>1536.915977389783</v>
+        <v>1536.915977389784</v>
       </c>
       <c r="T43" t="n">
         <v>1402.881538008514</v>
@@ -7608,10 +7608,10 @@
         <v>1042.90958264947</v>
       </c>
       <c r="W43" t="n">
-        <v>845.4269359665446</v>
+        <v>845.4269359665448</v>
       </c>
       <c r="X43" t="n">
-        <v>709.3719084225623</v>
+        <v>709.3719084225625</v>
       </c>
       <c r="Y43" t="n">
         <v>580.5138526330672</v>
@@ -7639,19 +7639,19 @@
         <v>612.3715382062493</v>
       </c>
       <c r="G44" t="n">
-        <v>298.0387667808467</v>
+        <v>287.0410042367173</v>
       </c>
       <c r="H44" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="I44" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J44" t="n">
-        <v>243.8279252593007</v>
+        <v>243.8279252593012</v>
       </c>
       <c r="K44" t="n">
-        <v>625.1936695733932</v>
+        <v>625.1936695733937</v>
       </c>
       <c r="L44" t="n">
         <v>1150.588225603151</v>
@@ -7663,7 +7663,7 @@
         <v>2348.102865308522</v>
       </c>
       <c r="O44" t="n">
-        <v>2865.989524423013</v>
+        <v>2865.989524423014</v>
       </c>
       <c r="P44" t="n">
         <v>3270.319423338377</v>
@@ -7675,22 +7675,22 @@
         <v>3496.7325789299</v>
       </c>
       <c r="S44" t="n">
-        <v>3428.412397957389</v>
+        <v>3428.41239795739</v>
       </c>
       <c r="T44" t="n">
-        <v>3304.771035815259</v>
+        <v>3304.77103581526</v>
       </c>
       <c r="U44" t="n">
         <v>3142.999673869646</v>
       </c>
       <c r="V44" t="n">
-        <v>2903.87130988011</v>
+        <v>2903.871309880111</v>
       </c>
       <c r="W44" t="n">
-        <v>2643.037177964031</v>
+        <v>2643.037177964032</v>
       </c>
       <c r="X44" t="n">
-        <v>2361.505943056986</v>
+        <v>2361.505943056987</v>
       </c>
       <c r="Y44" t="n">
         <v>2063.30113443521</v>
@@ -7721,19 +7721,19 @@
         <v>220.937241300597</v>
       </c>
       <c r="H45" t="n">
-        <v>119.1052045322123</v>
+        <v>119.1052045322124</v>
       </c>
       <c r="I45" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J45" t="n">
-        <v>179.810914411636</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="K45" t="n">
-        <v>494.2277915417637</v>
+        <v>236.569605851923</v>
       </c>
       <c r="L45" t="n">
-        <v>978.4044805826618</v>
+        <v>720.7462948928211</v>
       </c>
       <c r="M45" t="n">
         <v>1337.7368755048</v>
@@ -7782,52 +7782,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>490.7999111568625</v>
+        <v>490.7999111568629</v>
       </c>
       <c r="C46" t="n">
-        <v>413.7982515829906</v>
+        <v>413.798251582991</v>
       </c>
       <c r="D46" t="n">
-        <v>355.6161355246899</v>
+        <v>355.6161355246903</v>
       </c>
       <c r="E46" t="n">
-        <v>299.6375652963318</v>
+        <v>299.6375652963322</v>
       </c>
       <c r="F46" t="n">
-        <v>244.6821411524564</v>
+        <v>244.6821411524568</v>
       </c>
       <c r="G46" t="n">
         <v>167.9302997885905</v>
       </c>
       <c r="H46" t="n">
-        <v>104.9031775006438</v>
+        <v>104.9031775006439</v>
       </c>
       <c r="I46" t="n">
-        <v>69.93465157859799</v>
+        <v>69.93465157859801</v>
       </c>
       <c r="J46" t="n">
         <v>137.0106293959408</v>
       </c>
       <c r="K46" t="n">
-        <v>319.1086914830886</v>
+        <v>319.1086914830887</v>
       </c>
       <c r="L46" t="n">
-        <v>582.4595660889142</v>
+        <v>582.4595660889144</v>
       </c>
       <c r="M46" t="n">
-        <v>865.6171716594308</v>
+        <v>865.6171716594311</v>
       </c>
       <c r="N46" t="n">
         <v>1149.619034811413</v>
       </c>
       <c r="O46" t="n">
-        <v>1402.802877545182</v>
+        <v>1402.802877545183</v>
       </c>
       <c r="P46" t="n">
-        <v>1608.929321817165</v>
+        <v>1608.929321817166</v>
       </c>
       <c r="Q46" t="n">
-        <v>1695.926483912367</v>
+        <v>1695.926483912368</v>
       </c>
       <c r="R46" t="n">
         <v>1653.807550513945</v>
@@ -7839,19 +7839,19 @@
         <v>1402.881538008514</v>
       </c>
       <c r="U46" t="n">
-        <v>1205.659547501322</v>
+        <v>1205.659547501323</v>
       </c>
       <c r="V46" t="n">
-        <v>1042.90958264947</v>
+        <v>1042.909582649471</v>
       </c>
       <c r="W46" t="n">
-        <v>845.4269359665448</v>
+        <v>845.426935966545</v>
       </c>
       <c r="X46" t="n">
-        <v>709.3719084225623</v>
+        <v>709.3719084225627</v>
       </c>
       <c r="Y46" t="n">
-        <v>580.5138526330672</v>
+        <v>580.5138526330676</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8300,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,13 +8543,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>15.10491126663305</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8780,16 +8780,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>379.2653868234599</v>
+        <v>4.204443386476953</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>15.10491126663305</v>
+        <v>15.10491126663308</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>60.68607004751649</v>
+        <v>164.3882494924854</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,22 +9248,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>415.5215578597471</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>25.09949661053335</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9485,22 +9485,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>270.7633577833661</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>60.80261818352321</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>205.444270123898</v>
       </c>
       <c r="N24" t="n">
-        <v>4.204443386476726</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>15.10491126663308</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>343.5622652504707</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9968,13 +9968,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>164.3882494924854</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>15.10491126663308</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10208,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>214.1651829863193</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>164.3882494924855</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>15.10491126663308</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>29.71051239342871</v>
       </c>
       <c r="L33" t="n">
-        <v>343.5622652504707</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>4.204443386476747</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>205.444270123898</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627449</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10910,16 +10910,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>205.444270123898</v>
       </c>
       <c r="N39" t="n">
-        <v>58.20197501383532</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11147,10 +11147,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>205.444270123898</v>
       </c>
       <c r="N42" t="n">
-        <v>205.4442701238982</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720743</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>15.10491126663308</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>115.1905674602525</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>205.4442701238981</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>45.13471955850306</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>45.13471955850247</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>45.13471955850355</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.24693463981494</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>10.8877849186879</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>45.13471955850301</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>45.13471955850355</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>45.13471955850301</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>45.13471955850355</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>10.88778491868811</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>10.88778491868808</v>
       </c>
       <c r="I44" t="n">
         <v>34.24693463981494</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>649924.0750883723</v>
+        <v>649924.0750883722</v>
       </c>
     </row>
     <row r="6">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176765</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176763</v>
-      </c>
-      <c r="C2" t="n">
-        <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176765</v>
       </c>
       <c r="E2" t="n">
-        <v>797012.8200327402</v>
+        <v>797012.8200327401</v>
       </c>
       <c r="F2" t="n">
         <v>797012.8200327401</v>
       </c>
       <c r="G2" t="n">
-        <v>800515.7256176767</v>
+        <v>800515.7256176758</v>
       </c>
       <c r="H2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="I2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176758</v>
       </c>
       <c r="J2" t="n">
-        <v>797012.8200327401</v>
+        <v>797012.8200327398</v>
       </c>
       <c r="K2" t="n">
-        <v>797012.8200327401</v>
+        <v>797012.8200327398</v>
       </c>
       <c r="L2" t="n">
         <v>800515.7256176759</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176758</v>
       </c>
       <c r="O2" t="n">
-        <v>797012.82003274</v>
+        <v>797012.8200327399</v>
       </c>
       <c r="P2" t="n">
-        <v>797012.82003274</v>
+        <v>797012.8200327401</v>
       </c>
     </row>
     <row r="3">
@@ -26374,37 +26374,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>703589.292039426</v>
+        <v>703589.2920394259</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2407.185043120182</v>
+        <v>2407.185043120126</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>133464.9000523818</v>
+        <v>133464.9000523817</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4814.370086240331</v>
+        <v>4814.370086240274</v>
       </c>
       <c r="M3" t="n">
-        <v>157788.2115544436</v>
+        <v>157788.2115544437</v>
       </c>
       <c r="N3" t="n">
-        <v>1.250555214937776e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>67997.77241015527</v>
+        <v>67997.77241015542</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>295860.2172754402</v>
       </c>
       <c r="D4" t="n">
-        <v>295860.2172754402</v>
+        <v>295860.2172754403</v>
       </c>
       <c r="E4" t="n">
         <v>109489.831353481</v>
@@ -26432,7 +26432,7 @@
         <v>109489.831353481</v>
       </c>
       <c r="G4" t="n">
-        <v>111525.2810143031</v>
+        <v>111525.281014303</v>
       </c>
       <c r="H4" t="n">
         <v>111525.2810143031</v>
@@ -26453,7 +26453,7 @@
         <v>111525.281014303</v>
       </c>
       <c r="N4" t="n">
-        <v>111525.2810143032</v>
+        <v>111525.281014303</v>
       </c>
       <c r="O4" t="n">
         <v>109489.831353481</v>
@@ -26478,7 +26478,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>72787.96136398586</v>
+        <v>72787.96136398584</v>
       </c>
       <c r="F5" t="n">
         <v>72787.96136398584</v>
@@ -26487,7 +26487,7 @@
         <v>73040.92341322343</v>
       </c>
       <c r="H5" t="n">
-        <v>73040.92341322343</v>
+        <v>73040.92341322344</v>
       </c>
       <c r="I5" t="n">
         <v>73040.92341322343</v>
@@ -26505,7 +26505,7 @@
         <v>73040.92341322343</v>
       </c>
       <c r="N5" t="n">
-        <v>73040.92341322344</v>
+        <v>73040.92341322343</v>
       </c>
       <c r="O5" t="n">
         <v>72787.96136398584</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>375604.8080469267</v>
+        <v>375604.8080469269</v>
       </c>
       <c r="C6" t="n">
+        <v>456374.2395784744</v>
+      </c>
+      <c r="D6" t="n">
         <v>456374.2395784745</v>
       </c>
-      <c r="D6" t="n">
-        <v>456374.2395784746</v>
-      </c>
       <c r="E6" t="n">
-        <v>-88944.08281607403</v>
+        <v>-88863.24653334478</v>
       </c>
       <c r="F6" t="n">
-        <v>614645.209223352</v>
+        <v>614726.0455060811</v>
       </c>
       <c r="G6" t="n">
-        <v>613542.33614703</v>
+        <v>613542.3361470291</v>
       </c>
       <c r="H6" t="n">
-        <v>615949.5211901499</v>
+        <v>615949.5211901492</v>
       </c>
       <c r="I6" t="n">
-        <v>615949.5211901497</v>
+        <v>615949.5211901492</v>
       </c>
       <c r="J6" t="n">
-        <v>481180.3091709701</v>
+        <v>481261.1454536992</v>
       </c>
       <c r="K6" t="n">
-        <v>614645.2092233518</v>
+        <v>614726.0455060808</v>
       </c>
       <c r="L6" t="n">
-        <v>611135.151103909</v>
+        <v>611135.1511039092</v>
       </c>
       <c r="M6" t="n">
-        <v>458161.3096357062</v>
+        <v>458161.3096357064</v>
       </c>
       <c r="N6" t="n">
         <v>615949.5211901494</v>
       </c>
       <c r="O6" t="n">
-        <v>546647.4368131965</v>
+        <v>546728.2730959256</v>
       </c>
       <c r="P6" t="n">
-        <v>614645.2092233518</v>
+        <v>614726.0455060811</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="F2" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="G2" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="H2" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="I2" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="J2" t="n">
         <v>91.01517812049465</v>
@@ -26718,10 +26718,10 @@
         <v>94.02415942439484</v>
       </c>
       <c r="M2" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="N2" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="O2" t="n">
         <v>91.01517812049465</v>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>549.8197777449312</v>
+        <v>549.8197777449311</v>
       </c>
       <c r="F3" t="n">
-        <v>549.8197777449312</v>
+        <v>549.8197777449311</v>
       </c>
       <c r="G3" t="n">
         <v>549.8197777449311</v>
@@ -26798,7 +26798,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>874.1831447324753</v>
+        <v>874.1831447324749</v>
       </c>
       <c r="F4" t="n">
         <v>874.1831447324751</v>
@@ -26813,10 +26813,10 @@
         <v>874.1831447324751</v>
       </c>
       <c r="J4" t="n">
-        <v>874.1831447324751</v>
+        <v>874.1831447324749</v>
       </c>
       <c r="K4" t="n">
-        <v>874.1831447324751</v>
+        <v>874.1831447324749</v>
       </c>
       <c r="L4" t="n">
         <v>874.1831447324751</v>
@@ -26825,13 +26825,13 @@
         <v>874.1831447324751</v>
       </c>
       <c r="N4" t="n">
-        <v>874.1831447324749</v>
+        <v>874.1831447324751</v>
       </c>
       <c r="O4" t="n">
-        <v>874.1831447324749</v>
+        <v>874.1831447324751</v>
       </c>
       <c r="P4" t="n">
-        <v>874.1831447324749</v>
+        <v>874.1831447324751</v>
       </c>
     </row>
   </sheetData>
@@ -26916,37 +26916,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.008981303900228</v>
+        <v>3.008981303900157</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.00619681659443</v>
+        <v>88.00619681659444</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.017962607800413</v>
+        <v>6.017962607800342</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>1.56319401867222e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>84.99721551269408</v>
+        <v>84.99721551269428</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>549.8197777449312</v>
+        <v>549.8197777449311</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>633.1688558548159</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>241.0142888776589</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>633.1688558548161</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>633.168855854816</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,22 +27153,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.008981303900228</v>
+        <v>3.008981303900157</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.00619681659443</v>
+        <v>88.00619681659444</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>633.1688558548161</v>
+        <v>633.1688558548159</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>349.7082848322977</v>
+        <v>183.3765475617809</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27460,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>68.41706371150583</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27514,7 +27514,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27548,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G4" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>258.6446876408118</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>18.67467251196047</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27697,16 +27697,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27745,22 +27745,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>162.520211975451</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>101.7811932823757</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27794,13 +27794,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>118.3441281936695</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>178.3269633122123</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>155.9780284959916</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>168.158666233674</v>
       </c>
     </row>
     <row r="9">
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>141.1895910179436</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27991,16 +27991,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="10">
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>14.95552117266971</v>
+        <v>37.22501299855256</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="C11" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="D11" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="E11" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="F11" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="G11" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="H11" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="I11" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28137,28 +28137,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>11.02442803654651</v>
+        <v>11.02442803654654</v>
       </c>
       <c r="S11" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="T11" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="U11" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="V11" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="W11" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="X11" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="C13" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="D13" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="E13" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="F13" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="G13" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="H13" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="I13" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="J13" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="K13" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="L13" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="M13" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="N13" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="O13" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="P13" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="R13" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="S13" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="T13" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="U13" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="V13" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="W13" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="X13" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="C14" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="D14" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="E14" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="F14" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="G14" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="H14" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="I14" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28374,28 +28374,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>11.02442803654651</v>
+        <v>11.02442803654654</v>
       </c>
       <c r="S14" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="T14" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="U14" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="V14" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="W14" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="X14" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="C16" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="D16" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="E16" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="F16" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="G16" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="H16" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="I16" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="J16" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="K16" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="L16" t="n">
-        <v>91.01517812049539</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="M16" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="N16" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="O16" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="P16" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="R16" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="S16" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="T16" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="U16" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="V16" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="W16" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="X16" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.01517812049461</v>
+        <v>91.01517812049465</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="C17" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="D17" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="E17" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="F17" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="G17" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="H17" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="I17" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>11.02442803654654</v>
       </c>
       <c r="S17" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="T17" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="U17" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="V17" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="W17" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="X17" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="Y17" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="C19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="D19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="E19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="F19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="G19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="H19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="I19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="J19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="K19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="L19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="M19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="N19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="O19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="P19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.83109599206787</v>
+        <v>20.83109599206879</v>
       </c>
       <c r="R19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="S19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="T19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="U19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="V19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="W19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="X19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="Y19" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="C20" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="D20" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="E20" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="F20" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="G20" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="H20" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="I20" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>11.02442803654654</v>
       </c>
       <c r="S20" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="T20" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="U20" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="V20" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="W20" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="X20" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="Y20" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="C22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="D22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="E22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="F22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="G22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="H22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="I22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="J22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="K22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="L22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="M22" t="n">
-        <v>20.83109599206796</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="N22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="O22" t="n">
-        <v>94.02415942439484</v>
+        <v>20.8310959920662</v>
       </c>
       <c r="P22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="R22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="S22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="T22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="U22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="V22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="W22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="X22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.02415942439484</v>
+        <v>94.0241594243949</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="C23" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="D23" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="E23" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="F23" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="G23" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="H23" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="I23" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>11.02442803654654</v>
       </c>
       <c r="S23" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="T23" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="U23" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="V23" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="W23" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="X23" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="Y23" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="C25" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="D25" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="E25" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="F25" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="G25" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="H25" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="I25" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="J25" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="K25" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="L25" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="M25" t="n">
-        <v>94.02415942439484</v>
+        <v>20.83109599206713</v>
       </c>
       <c r="N25" t="n">
-        <v>20.83109599206784</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="O25" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="P25" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="Q25" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="R25" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="S25" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="T25" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="U25" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="V25" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="W25" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="X25" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439487</v>
       </c>
     </row>
     <row r="26">
@@ -29930,10 +29930,10 @@
         <v>94.02415942439484</v>
       </c>
       <c r="J34" t="n">
-        <v>94.02415942439484</v>
+        <v>23.26166517368378</v>
       </c>
       <c r="K34" t="n">
-        <v>94.02415942439484</v>
+        <v>91.59359024277892</v>
       </c>
       <c r="L34" t="n">
         <v>94.02415942439484</v>
@@ -29951,7 +29951,7 @@
         <v>94.02415942439484</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.83109599206787</v>
+        <v>94.02415942439484</v>
       </c>
       <c r="R34" t="n">
         <v>94.02415942439484</v>
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="C35" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="D35" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="E35" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="F35" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="G35" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="H35" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="I35" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>11.02442803654654</v>
       </c>
       <c r="S35" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="T35" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="U35" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="V35" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="W35" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="X35" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="Y35" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="C37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="D37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="E37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="F37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="G37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="H37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="I37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="J37" t="n">
-        <v>94.02415942439484</v>
+        <v>23.26166517368378</v>
       </c>
       <c r="K37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="L37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="M37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="N37" t="n">
-        <v>20.83109599206784</v>
+        <v>91.5935902427797</v>
       </c>
       <c r="O37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="P37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="Q37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="R37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="S37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="T37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="U37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="V37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="W37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="X37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="Y37" t="n">
-        <v>94.02415942439484</v>
+        <v>94.02415942439481</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="C38" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="D38" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="E38" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="F38" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="G38" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="H38" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="I38" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>11.02442803654654</v>
       </c>
       <c r="S38" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="T38" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="U38" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="V38" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="W38" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="X38" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="Y38" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="C40" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="D40" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="E40" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="F40" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="G40" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="H40" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="I40" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="J40" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="K40" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="L40" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="M40" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="N40" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="O40" t="n">
-        <v>94.02415942439499</v>
+        <v>20.83109599206873</v>
       </c>
       <c r="P40" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.8310959920642</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="R40" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="S40" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="T40" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="U40" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="V40" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="W40" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="X40" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
       <c r="Y40" t="n">
-        <v>94.02415942439499</v>
+        <v>94.02415942439481</v>
       </c>
     </row>
     <row r="41">
@@ -31755,43 +31755,43 @@
         <v>2.210330764803742</v>
       </c>
       <c r="H11" t="n">
-        <v>22.63654994504633</v>
+        <v>22.63654994504632</v>
       </c>
       <c r="I11" t="n">
-        <v>85.21377681009635</v>
+        <v>85.21377681009632</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5990607492618</v>
+        <v>187.5990607492617</v>
       </c>
       <c r="K11" t="n">
         <v>281.1623620234042</v>
       </c>
       <c r="L11" t="n">
-        <v>348.8067721667668</v>
+        <v>348.8067721667667</v>
       </c>
       <c r="M11" t="n">
         <v>388.1147419053453</v>
       </c>
       <c r="N11" t="n">
-        <v>394.394844190844</v>
+        <v>394.3948441908439</v>
       </c>
       <c r="O11" t="n">
-        <v>372.4158676483268</v>
+        <v>372.4158676483267</v>
       </c>
       <c r="P11" t="n">
-        <v>317.8483268922344</v>
+        <v>317.8483268922343</v>
       </c>
       <c r="Q11" t="n">
         <v>238.6908563777002</v>
       </c>
       <c r="R11" t="n">
-        <v>138.8446899046032</v>
+        <v>138.8446899046031</v>
       </c>
       <c r="S11" t="n">
-        <v>50.36791230296532</v>
+        <v>50.36791230296531</v>
       </c>
       <c r="T11" t="n">
-        <v>9.675722922928385</v>
+        <v>9.675722922928383</v>
       </c>
       <c r="U11" t="n">
         <v>0.1768264611842993</v>
@@ -31846,13 +31846,13 @@
         <v>190.9690071437277</v>
       </c>
       <c r="L12" t="n">
-        <v>256.7813971439889</v>
+        <v>256.7813971439888</v>
       </c>
       <c r="M12" t="n">
-        <v>299.6517788709875</v>
+        <v>299.6517788709874</v>
       </c>
       <c r="N12" t="n">
-        <v>307.5826698160064</v>
+        <v>307.5826698160063</v>
       </c>
       <c r="O12" t="n">
         <v>281.3780517295215</v>
@@ -31861,19 +31861,19 @@
         <v>225.8306932401775</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.961837844231</v>
+        <v>150.9618378442309</v>
       </c>
       <c r="R12" t="n">
-        <v>73.426875224125</v>
+        <v>73.42687522412498</v>
       </c>
       <c r="S12" t="n">
-        <v>21.96685621462059</v>
+        <v>21.96685621462058</v>
       </c>
       <c r="T12" t="n">
-        <v>4.766833733467846</v>
+        <v>4.766833733467845</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07780468552994313</v>
+        <v>0.07780468552994312</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9914782877367612</v>
+        <v>0.9914782877367609</v>
       </c>
       <c r="H13" t="n">
-        <v>8.815143321877756</v>
+        <v>8.815143321877754</v>
       </c>
       <c r="I13" t="n">
         <v>29.81645614393824</v>
       </c>
       <c r="J13" t="n">
-        <v>70.09751494298901</v>
+        <v>70.09751494298899</v>
       </c>
       <c r="K13" t="n">
-        <v>115.1917501570528</v>
+        <v>115.1917501570527</v>
       </c>
       <c r="L13" t="n">
         <v>147.4057810695181</v>
@@ -31940,19 +31940,19 @@
         <v>119.9147921822715</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.02278643948462</v>
+        <v>83.02278643948459</v>
       </c>
       <c r="R13" t="n">
-        <v>44.58046919223654</v>
+        <v>44.58046919223653</v>
       </c>
       <c r="S13" t="n">
         <v>17.27876252355791</v>
       </c>
       <c r="T13" t="n">
-        <v>4.236316320329797</v>
+        <v>4.236316320329796</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05408063387655067</v>
+        <v>0.05408063387655066</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,43 +31992,43 @@
         <v>2.210330764803742</v>
       </c>
       <c r="H14" t="n">
-        <v>22.63654994504633</v>
+        <v>22.63654994504632</v>
       </c>
       <c r="I14" t="n">
-        <v>85.21377681009635</v>
+        <v>85.21377681009632</v>
       </c>
       <c r="J14" t="n">
-        <v>187.5990607492618</v>
+        <v>187.5990607492617</v>
       </c>
       <c r="K14" t="n">
         <v>281.1623620234042</v>
       </c>
       <c r="L14" t="n">
-        <v>348.8067721667668</v>
+        <v>348.8067721667667</v>
       </c>
       <c r="M14" t="n">
         <v>388.1147419053453</v>
       </c>
       <c r="N14" t="n">
-        <v>394.394844190844</v>
+        <v>394.3948441908439</v>
       </c>
       <c r="O14" t="n">
-        <v>372.4158676483268</v>
+        <v>372.4158676483267</v>
       </c>
       <c r="P14" t="n">
-        <v>317.8483268922344</v>
+        <v>317.8483268922343</v>
       </c>
       <c r="Q14" t="n">
         <v>238.6908563777002</v>
       </c>
       <c r="R14" t="n">
-        <v>138.8446899046032</v>
+        <v>138.8446899046031</v>
       </c>
       <c r="S14" t="n">
-        <v>50.36791230296532</v>
+        <v>50.36791230296531</v>
       </c>
       <c r="T14" t="n">
-        <v>9.675722922928385</v>
+        <v>9.675722922928383</v>
       </c>
       <c r="U14" t="n">
         <v>0.1768264611842993</v>
@@ -32083,13 +32083,13 @@
         <v>190.9690071437277</v>
       </c>
       <c r="L15" t="n">
-        <v>256.7813971439889</v>
+        <v>256.7813971439888</v>
       </c>
       <c r="M15" t="n">
-        <v>299.6517788709875</v>
+        <v>299.6517788709874</v>
       </c>
       <c r="N15" t="n">
-        <v>307.5826698160064</v>
+        <v>307.5826698160063</v>
       </c>
       <c r="O15" t="n">
         <v>281.3780517295215</v>
@@ -32098,19 +32098,19 @@
         <v>225.8306932401775</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.961837844231</v>
+        <v>150.9618378442309</v>
       </c>
       <c r="R15" t="n">
-        <v>73.426875224125</v>
+        <v>73.42687522412498</v>
       </c>
       <c r="S15" t="n">
-        <v>21.96685621462059</v>
+        <v>21.96685621462058</v>
       </c>
       <c r="T15" t="n">
-        <v>4.766833733467846</v>
+        <v>4.766833733467845</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07780468552994313</v>
+        <v>0.07780468552994312</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9914782877367612</v>
+        <v>0.9914782877367609</v>
       </c>
       <c r="H16" t="n">
-        <v>8.815143321877756</v>
+        <v>8.815143321877754</v>
       </c>
       <c r="I16" t="n">
         <v>29.81645614393824</v>
       </c>
       <c r="J16" t="n">
-        <v>70.09751494298901</v>
+        <v>70.09751494298899</v>
       </c>
       <c r="K16" t="n">
-        <v>115.1917501570528</v>
+        <v>115.1917501570527</v>
       </c>
       <c r="L16" t="n">
         <v>147.4057810695181</v>
@@ -32177,19 +32177,19 @@
         <v>119.9147921822715</v>
       </c>
       <c r="Q16" t="n">
-        <v>83.02278643948462</v>
+        <v>83.02278643948459</v>
       </c>
       <c r="R16" t="n">
-        <v>44.58046919223654</v>
+        <v>44.58046919223653</v>
       </c>
       <c r="S16" t="n">
         <v>17.27876252355791</v>
       </c>
       <c r="T16" t="n">
-        <v>4.236316320329797</v>
+        <v>4.236316320329796</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05408063387655067</v>
+        <v>0.05408063387655066</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35263,13 +35263,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O9" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>530.70157174723</v>
       </c>
       <c r="M11" t="n">
-        <v>607.2820421709051</v>
+        <v>607.282042170905</v>
       </c>
       <c r="N11" t="n">
         <v>602.3287050062372</v>
@@ -35427,7 +35427,7 @@
         <v>523.1178374893854</v>
       </c>
       <c r="P11" t="n">
-        <v>408.4140393084475</v>
+        <v>408.4140393084474</v>
       </c>
       <c r="Q11" t="n">
         <v>228.7001571631554</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>110.9861240737758</v>
       </c>
       <c r="K12" t="n">
-        <v>317.5928051819473</v>
+        <v>53.12756816936866</v>
       </c>
       <c r="L12" t="n">
-        <v>489.0673626675739</v>
+        <v>489.0673626675738</v>
       </c>
       <c r="M12" t="n">
-        <v>623.2228086989691</v>
+        <v>623.2228086989689</v>
       </c>
       <c r="N12" t="n">
-        <v>555.5063445561331</v>
+        <v>180.44540111915</v>
       </c>
       <c r="O12" t="n">
         <v>532.6441265618066</v>
       </c>
       <c r="P12" t="n">
-        <v>91.85628582584729</v>
+        <v>410.3190544657844</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.98006375820944</v>
+        <v>221.0573514940585</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>67.75351294681084</v>
+        <v>67.75351294681087</v>
       </c>
       <c r="K13" t="n">
-        <v>183.9374364516645</v>
+        <v>183.9374364516646</v>
       </c>
       <c r="L13" t="n">
         <v>266.0109844503289</v>
@@ -35588,7 +35588,7 @@
         <v>208.2085295676596</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.87592130828484</v>
+        <v>87.87592130828486</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>530.70157174723</v>
       </c>
       <c r="M14" t="n">
-        <v>607.2820421709051</v>
+        <v>607.282042170905</v>
       </c>
       <c r="N14" t="n">
         <v>602.3287050062372</v>
@@ -35664,7 +35664,7 @@
         <v>523.1178374893854</v>
       </c>
       <c r="P14" t="n">
-        <v>408.4140393084475</v>
+        <v>408.4140393084474</v>
       </c>
       <c r="Q14" t="n">
         <v>228.7001571631554</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>317.5928051819473</v>
+        <v>53.12756816936866</v>
       </c>
       <c r="L15" t="n">
-        <v>118.2270173641147</v>
+        <v>489.0673626675738</v>
       </c>
       <c r="M15" t="n">
-        <v>623.2228086989691</v>
+        <v>623.2228086989689</v>
       </c>
       <c r="N15" t="n">
-        <v>655.5833320762266</v>
+        <v>655.5833320762265</v>
       </c>
       <c r="O15" t="n">
         <v>532.6441265618066</v>
       </c>
       <c r="P15" t="n">
-        <v>152.5423558733638</v>
+        <v>256.2445353183326</v>
       </c>
       <c r="Q15" t="n">
-        <v>221.0573514940585</v>
+        <v>10.98006375820941</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>67.75351294681084</v>
+        <v>67.75351294681087</v>
       </c>
       <c r="K16" t="n">
-        <v>183.9374364516645</v>
+        <v>183.9374364516646</v>
       </c>
       <c r="L16" t="n">
-        <v>266.0109844503297</v>
+        <v>266.0109844503289</v>
       </c>
       <c r="M16" t="n">
         <v>286.0177834045622</v>
       </c>
       <c r="N16" t="n">
-        <v>286.870568840386</v>
+        <v>286.8705688403861</v>
       </c>
       <c r="O16" t="n">
         <v>255.7412552866358</v>
@@ -35825,7 +35825,7 @@
         <v>208.2085295676596</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.87592130828484</v>
+        <v>87.87592130828486</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>317.5928051819473</v>
       </c>
       <c r="L18" t="n">
-        <v>489.0673626675738</v>
+        <v>118.2270173641147</v>
       </c>
       <c r="M18" t="n">
-        <v>573.0393028087162</v>
+        <v>623.2228086989689</v>
       </c>
       <c r="N18" t="n">
-        <v>176.240957732673</v>
+        <v>655.5833320762265</v>
       </c>
       <c r="O18" t="n">
-        <v>532.6441265618066</v>
+        <v>163.8813038956104</v>
       </c>
       <c r="P18" t="n">
         <v>410.3190544657844</v>
       </c>
       <c r="Q18" t="n">
-        <v>10.98006375820941</v>
+        <v>221.0573514940585</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>70.76249425071106</v>
+        <v>70.76249425071103</v>
       </c>
       <c r="K19" t="n">
         <v>186.9464177555647</v>
       </c>
       <c r="L19" t="n">
-        <v>269.0199657542291</v>
+        <v>269.019965754229</v>
       </c>
       <c r="M19" t="n">
-        <v>289.0267647084624</v>
+        <v>289.0267647084623</v>
       </c>
       <c r="N19" t="n">
         <v>289.8795501442862</v>
@@ -36062,7 +36062,7 @@
         <v>211.2175108715598</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.69183917985808</v>
+        <v>17.691839179859</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>317.5928051819473</v>
       </c>
       <c r="L21" t="n">
-        <v>118.2270173641147</v>
+        <v>489.0673626675738</v>
       </c>
       <c r="M21" t="n">
         <v>623.2228086989689</v>
       </c>
       <c r="N21" t="n">
-        <v>655.5833320762265</v>
+        <v>176.240957732673</v>
       </c>
       <c r="O21" t="n">
         <v>532.6441265618066</v>
       </c>
       <c r="P21" t="n">
-        <v>362.6196436092134</v>
+        <v>410.3190544657844</v>
       </c>
       <c r="Q21" t="n">
-        <v>10.98006375820941</v>
+        <v>71.78268194173262</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>70.76249425071106</v>
+        <v>70.76249425071111</v>
       </c>
       <c r="K22" t="n">
-        <v>186.9464177555647</v>
+        <v>186.9464177555648</v>
       </c>
       <c r="L22" t="n">
         <v>269.0199657542291</v>
       </c>
       <c r="M22" t="n">
-        <v>215.8337012761355</v>
+        <v>289.0267647084625</v>
       </c>
       <c r="N22" t="n">
-        <v>289.8795501442862</v>
+        <v>289.8795501442863</v>
       </c>
       <c r="O22" t="n">
-        <v>258.750236590536</v>
+        <v>185.5571731582074</v>
       </c>
       <c r="P22" t="n">
-        <v>211.2175108715598</v>
+        <v>211.2175108715599</v>
       </c>
       <c r="Q22" t="n">
-        <v>90.88490261218504</v>
+        <v>90.8849026121851</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>110.9861240737758</v>
       </c>
       <c r="K24" t="n">
-        <v>53.12756816936866</v>
+        <v>317.5928051819473</v>
       </c>
       <c r="L24" t="n">
         <v>489.0673626675738</v>
       </c>
       <c r="M24" t="n">
-        <v>623.2228086989689</v>
+        <v>362.9620150728671</v>
       </c>
       <c r="N24" t="n">
-        <v>180.4454011191498</v>
+        <v>176.240957732673</v>
       </c>
       <c r="O24" t="n">
         <v>532.6441265618066</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>70.76249425071106</v>
+        <v>70.76249425071109</v>
       </c>
       <c r="K25" t="n">
-        <v>186.9464177555647</v>
+        <v>186.9464177555648</v>
       </c>
       <c r="L25" t="n">
         <v>269.0199657542291</v>
       </c>
       <c r="M25" t="n">
-        <v>289.0267647084624</v>
+        <v>215.8337012761347</v>
       </c>
       <c r="N25" t="n">
-        <v>216.6864867119592</v>
+        <v>289.8795501442863</v>
       </c>
       <c r="O25" t="n">
         <v>258.750236590536</v>
@@ -36536,7 +36536,7 @@
         <v>211.2175108715598</v>
       </c>
       <c r="Q25" t="n">
-        <v>90.88490261218504</v>
+        <v>90.88490261218507</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>110.9861240737758</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>317.5928051819473</v>
+        <v>53.12756816936866</v>
       </c>
       <c r="L27" t="n">
-        <v>461.7892826145854</v>
+        <v>489.0673626675738</v>
       </c>
       <c r="M27" t="n">
         <v>623.2228086989689</v>
@@ -36688,13 +36688,13 @@
         <v>655.5833320762265</v>
       </c>
       <c r="O27" t="n">
-        <v>138.781807285077</v>
+        <v>532.6441265618066</v>
       </c>
       <c r="P27" t="n">
-        <v>91.85628582584724</v>
+        <v>256.2445353183326</v>
       </c>
       <c r="Q27" t="n">
-        <v>221.0573514940585</v>
+        <v>10.98006375820941</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>110.9861240737758</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>53.12756816936866</v>
       </c>
       <c r="L30" t="n">
-        <v>118.2270173641147</v>
+        <v>489.0673626675738</v>
       </c>
       <c r="M30" t="n">
         <v>623.2228086989689</v>
@@ -36928,10 +36928,10 @@
         <v>532.6441265618066</v>
       </c>
       <c r="P30" t="n">
-        <v>306.0214688121666</v>
+        <v>91.85628582584724</v>
       </c>
       <c r="Q30" t="n">
-        <v>221.0573514940585</v>
+        <v>175.3683132506949</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>110.9861240737758</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>317.5928051819473</v>
+        <v>82.83808056279737</v>
       </c>
       <c r="L33" t="n">
-        <v>461.7892826145854</v>
+        <v>489.0673626675738</v>
       </c>
       <c r="M33" t="n">
         <v>623.2228086989689</v>
@@ -37165,7 +37165,7 @@
         <v>138.781807285077</v>
       </c>
       <c r="P33" t="n">
-        <v>91.85628582584724</v>
+        <v>410.3190544657844</v>
       </c>
       <c r="Q33" t="n">
         <v>221.0573514940585</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>70.76249425071106</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>186.9464177555647</v>
+        <v>184.5158485739488</v>
       </c>
       <c r="L34" t="n">
         <v>269.0199657542291</v>
@@ -37247,7 +37247,7 @@
         <v>211.2175108715598</v>
       </c>
       <c r="Q34" t="n">
-        <v>17.69183917985808</v>
+        <v>90.88490261218504</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>110.9861240737758</v>
       </c>
       <c r="K36" t="n">
-        <v>57.3320115558454</v>
+        <v>317.5928051819473</v>
       </c>
       <c r="L36" t="n">
         <v>489.0673626675738</v>
       </c>
       <c r="M36" t="n">
-        <v>623.2228086989689</v>
+        <v>157.5177449489691</v>
       </c>
       <c r="N36" t="n">
-        <v>176.240957732673</v>
+        <v>381.685227856571</v>
       </c>
       <c r="O36" t="n">
         <v>532.6441265618066</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>70.76249425071106</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>186.9464177555647</v>
       </c>
       <c r="L37" t="n">
-        <v>269.0199657542291</v>
+        <v>269.019965754229</v>
       </c>
       <c r="M37" t="n">
-        <v>289.0267647084624</v>
+        <v>289.0267647084623</v>
       </c>
       <c r="N37" t="n">
-        <v>216.6864867119592</v>
+        <v>287.4489809626711</v>
       </c>
       <c r="O37" t="n">
         <v>258.750236590536</v>
@@ -37484,7 +37484,7 @@
         <v>211.2175108715598</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.88490261218504</v>
+        <v>90.88490261218502</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>602.3287050062372</v>
       </c>
       <c r="O38" t="n">
-        <v>523.1178374893849</v>
+        <v>523.1178374893854</v>
       </c>
       <c r="P38" t="n">
         <v>408.4140393084474</v>
@@ -37630,16 +37630,16 @@
         <v>489.0673626675738</v>
       </c>
       <c r="M39" t="n">
-        <v>623.2228086989689</v>
+        <v>362.9620150728671</v>
       </c>
       <c r="N39" t="n">
-        <v>234.4429327465083</v>
+        <v>176.240957732673</v>
       </c>
       <c r="O39" t="n">
         <v>532.6441265618066</v>
       </c>
       <c r="P39" t="n">
-        <v>91.85628582584724</v>
+        <v>410.3190544657844</v>
       </c>
       <c r="Q39" t="n">
         <v>221.0573514940585</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>70.76249425071121</v>
+        <v>70.76249425071103</v>
       </c>
       <c r="K40" t="n">
-        <v>186.9464177555649</v>
+        <v>186.9464177555647</v>
       </c>
       <c r="L40" t="n">
-        <v>269.0199657542292</v>
+        <v>269.019965754229</v>
       </c>
       <c r="M40" t="n">
-        <v>289.0267647084626</v>
+        <v>289.0267647084623</v>
       </c>
       <c r="N40" t="n">
-        <v>289.8795501442864</v>
+        <v>289.8795501442862</v>
       </c>
       <c r="O40" t="n">
-        <v>258.7502365905362</v>
+        <v>185.5571731582099</v>
       </c>
       <c r="P40" t="n">
-        <v>211.21751087156</v>
+        <v>211.2175108715598</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.69183917985441</v>
+        <v>90.88490261218502</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37867,10 +37867,10 @@
         <v>489.0673626675738</v>
       </c>
       <c r="M42" t="n">
-        <v>157.5177449489691</v>
+        <v>362.9620150728671</v>
       </c>
       <c r="N42" t="n">
-        <v>381.6852278565712</v>
+        <v>176.240957732673</v>
       </c>
       <c r="O42" t="n">
         <v>532.6441265618066</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>175.6497713946492</v>
+        <v>175.6497713946497</v>
       </c>
       <c r="K44" t="n">
         <v>385.2179235495884</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>110.9861240737758</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>317.5928051819473</v>
+        <v>168.3181356296212</v>
       </c>
       <c r="L45" t="n">
         <v>489.0673626675738</v>
       </c>
       <c r="M45" t="n">
-        <v>362.9620150728672</v>
+        <v>623.2228086989689</v>
       </c>
       <c r="N45" t="n">
         <v>176.240957732673</v>
